--- a/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.583243289723896</v>
+        <v>2.58324328972401</v>
       </c>
       <c r="C2">
-        <v>0.3500870475644149</v>
+        <v>0.3500870475645002</v>
       </c>
       <c r="D2">
-        <v>0.01032624079727285</v>
+        <v>0.01032624079729683</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.204424289612192</v>
+        <v>1.204424289612177</v>
       </c>
       <c r="G2">
-        <v>0.8957881302596462</v>
+        <v>0.895788130259632</v>
       </c>
       <c r="H2">
         <v>0.6380820692431897</v>
@@ -439,7 +439,7 @@
         <v>0.6309298963709438</v>
       </c>
       <c r="K2">
-        <v>1.800794674401075</v>
+        <v>1.800794674401089</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,10 +453,10 @@
         <v>2.232278871093115</v>
       </c>
       <c r="C3">
-        <v>0.3054600337391662</v>
+        <v>0.3054600337391378</v>
       </c>
       <c r="D3">
-        <v>0.0114708518310751</v>
+        <v>0.01147085183118879</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -465,19 +465,19 @@
         <v>1.07576114866751</v>
       </c>
       <c r="G3">
-        <v>0.8057059375354996</v>
+        <v>0.8057059375355067</v>
       </c>
       <c r="H3">
-        <v>0.5877378879520165</v>
+        <v>0.5877378879520236</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5459207213167971</v>
+        <v>0.5459207213167829</v>
       </c>
       <c r="K3">
-        <v>1.536249368927145</v>
+        <v>1.536249368927159</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.019107323092214</v>
+        <v>2.019107323092186</v>
       </c>
       <c r="C4">
-        <v>0.2781866612769335</v>
+        <v>0.2781866612771609</v>
       </c>
       <c r="D4">
-        <v>0.01220036626654153</v>
+        <v>0.01220036626653709</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.00006058073545</v>
+        <v>1.000060580735436</v>
       </c>
       <c r="G4">
-        <v>0.7530552846110794</v>
+        <v>0.7530552846110936</v>
       </c>
       <c r="H4">
-        <v>0.5589657080485679</v>
+        <v>0.558965708048575</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4942224709163128</v>
+        <v>0.4942224709163057</v>
       </c>
       <c r="K4">
         <v>1.378496259870232</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.93271635723886</v>
+        <v>1.932716357239002</v>
       </c>
       <c r="C5">
-        <v>0.2670961610258331</v>
+        <v>0.2670961610258473</v>
       </c>
       <c r="D5">
-        <v>0.01250372923817888</v>
+        <v>0.01250372923811405</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,16 +541,16 @@
         <v>0.9699535671880142</v>
       </c>
       <c r="G5">
-        <v>0.7321987303057398</v>
+        <v>0.7321987303057469</v>
       </c>
       <c r="H5">
-        <v>0.547725950516778</v>
+        <v>0.5477259505167709</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4732564440025584</v>
+        <v>0.4732564440025442</v>
       </c>
       <c r="K5">
         <v>1.315194380360552</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.918397187500148</v>
+        <v>1.918397187500204</v>
       </c>
       <c r="C6">
-        <v>0.2652557820823915</v>
+        <v>0.2652557820822494</v>
       </c>
       <c r="D6">
-        <v>0.01255445283526857</v>
+        <v>0.01255445283532897</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9649966877361749</v>
+        <v>0.9649966877362033</v>
       </c>
       <c r="G6">
-        <v>0.7287697715305441</v>
+        <v>0.7287697715305583</v>
       </c>
       <c r="H6">
-        <v>0.5458874473620767</v>
+        <v>0.5458874473620625</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4697805260258718</v>
+        <v>0.4697805260258789</v>
       </c>
       <c r="K6">
-        <v>1.304737365795816</v>
+        <v>1.304737365795845</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.017940420469955</v>
+        <v>2.017940420469898</v>
       </c>
       <c r="C7">
-        <v>0.2780370060513064</v>
+        <v>0.2780370060516617</v>
       </c>
       <c r="D7">
-        <v>0.01220443368010748</v>
+        <v>0.01220443368029223</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>0.7527716681710288</v>
       </c>
       <c r="H7">
-        <v>0.5588122266581266</v>
+        <v>0.5588122266581195</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4939393347935948</v>
+        <v>0.4939393347936019</v>
       </c>
       <c r="K7">
         <v>1.377638803381657</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.461681735262971</v>
+        <v>2.461681735263085</v>
       </c>
       <c r="C8">
         <v>0.3346677832680314</v>
       </c>
       <c r="D8">
-        <v>0.01071494025739295</v>
+        <v>0.01071494025758035</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0.86413147427902</v>
       </c>
       <c r="H8">
-        <v>0.6202459573802201</v>
+        <v>0.6202459573802273</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0.6015003966072854</v>
       </c>
       <c r="K8">
-        <v>1.708484752878192</v>
+        <v>1.708484752878135</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.355702433231443</v>
+        <v>3.355702433231613</v>
       </c>
       <c r="C9">
-        <v>0.4471596195280085</v>
+        <v>0.4471596195281506</v>
       </c>
       <c r="D9">
-        <v>0.008040997230530422</v>
+        <v>0.008040997230650326</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.503066880321896</v>
+        <v>1.503066880321882</v>
       </c>
       <c r="G9">
-        <v>1.107160913610016</v>
+        <v>1.107160913609974</v>
       </c>
       <c r="H9">
-        <v>0.7603756777512132</v>
+        <v>0.7603756777512203</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0.8175883913472148</v>
       </c>
       <c r="K9">
-        <v>2.404547506402082</v>
+        <v>2.404547506402125</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.035816155498821</v>
+        <v>4.035816155498765</v>
       </c>
       <c r="C10">
-        <v>0.5313433512297365</v>
+        <v>0.5313433512299355</v>
       </c>
       <c r="D10">
-        <v>0.006287699082920817</v>
+        <v>0.00628769908292881</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.781399334525759</v>
+        <v>1.78139933452573</v>
       </c>
       <c r="G10">
         <v>1.306406673615854</v>
       </c>
       <c r="H10">
-        <v>0.8796107311472952</v>
+        <v>0.8796107311472667</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0.981437142452549</v>
       </c>
       <c r="K10">
-        <v>2.961752982539835</v>
+        <v>2.961752982539807</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.352623067772981</v>
+        <v>4.352623067772811</v>
       </c>
       <c r="C11">
-        <v>0.5701397732317446</v>
+        <v>0.5701397732318867</v>
       </c>
       <c r="D11">
-        <v>0.005554021200594228</v>
+        <v>0.005554021200711468</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.915512301646771</v>
+        <v>1.915512301646757</v>
       </c>
       <c r="G11">
         <v>1.40305570284724</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.057598893726649</v>
+        <v>1.057598893726663</v>
       </c>
       <c r="K11">
         <v>3.230032531333137</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.473892000267597</v>
+        <v>4.473892000267483</v>
       </c>
       <c r="C12">
-        <v>0.5849183660249935</v>
+        <v>0.5849183660250503</v>
       </c>
       <c r="D12">
-        <v>0.005287360763860605</v>
+        <v>0.005287360763971627</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>1.967564611059871</v>
       </c>
       <c r="G12">
-        <v>1.440670115432425</v>
+        <v>1.44067011543244</v>
       </c>
       <c r="H12">
         <v>0.9616514581158384</v>
@@ -819,7 +819,7 @@
         <v>1.086724541107557</v>
       </c>
       <c r="K12">
-        <v>3.334265492809067</v>
+        <v>3.334265492809038</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0.5817313923632241</v>
       </c>
       <c r="D13">
-        <v>0.005344257644684269</v>
+        <v>0.005344257644383177</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>1.956294540565452</v>
       </c>
       <c r="G13">
-        <v>1.432521329929187</v>
+        <v>1.432521329929159</v>
       </c>
       <c r="H13">
         <v>0.9566376121961326</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.080438240124948</v>
+        <v>1.080438240124963</v>
       </c>
       <c r="K13">
         <v>3.311690199834786</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.362572375538605</v>
+        <v>4.362572375538491</v>
       </c>
       <c r="C14">
-        <v>0.5713537757991958</v>
+        <v>0.5713537757993947</v>
       </c>
       <c r="D14">
-        <v>0.005531846079707137</v>
+        <v>0.0055318460797249</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.059989047328116</v>
+        <v>1.059989047328131</v>
       </c>
       <c r="K14">
-        <v>3.238551564159707</v>
+        <v>3.238551564159692</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.310598636331406</v>
+        <v>4.310598636331292</v>
       </c>
       <c r="C15">
-        <v>0.5650090250916548</v>
+        <v>0.5650090250918254</v>
       </c>
       <c r="D15">
-        <v>0.00564827033609383</v>
+        <v>0.005648270336097383</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.897565678839811</v>
+        <v>1.897565678839825</v>
       </c>
       <c r="G15">
         <v>1.390100031161225</v>
       </c>
       <c r="H15">
-        <v>0.9306066281743881</v>
+        <v>0.9306066281744165</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.015280503923293</v>
+        <v>4.01528050392335</v>
       </c>
       <c r="C16">
-        <v>0.5288192556062654</v>
+        <v>0.5288192556061801</v>
       </c>
       <c r="D16">
-        <v>0.006337091527364613</v>
+        <v>0.006337091527247374</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.772801035211472</v>
+        <v>1.772801035211486</v>
       </c>
       <c r="G16">
         <v>1.300223749784564</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9764966906271013</v>
+        <v>0.9764966906270871</v>
       </c>
       <c r="K16">
-        <v>2.944559530418033</v>
+        <v>2.944559530418047</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.836167316619822</v>
+        <v>3.836167316619992</v>
       </c>
       <c r="C17">
         <v>0.5067566022155745</v>
       </c>
       <c r="D17">
-        <v>0.006777299497905176</v>
+        <v>0.006777299497910505</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.698307164156319</v>
+        <v>1.698307164156304</v>
       </c>
       <c r="G17">
-        <v>1.246727112870985</v>
+        <v>1.246727112870971</v>
       </c>
       <c r="H17">
         <v>0.8435583377338816</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9333874741833768</v>
+        <v>0.9333874741833625</v>
       </c>
       <c r="K17">
         <v>2.795589748915376</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.733828431643701</v>
+        <v>3.733828431643758</v>
       </c>
       <c r="C18">
-        <v>0.4941128848152516</v>
+        <v>0.4941128848151379</v>
       </c>
       <c r="D18">
-        <v>0.007036368832271656</v>
+        <v>0.007036368832294748</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.656153118308779</v>
+        <v>1.656153118308765</v>
       </c>
       <c r="G18">
         <v>1.216512693661201</v>
       </c>
       <c r="H18">
-        <v>0.8254111475544263</v>
+        <v>0.8254111475544192</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0.9087417624403002</v>
       </c>
       <c r="K18">
-        <v>2.711263388416725</v>
+        <v>2.711263388416697</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>3.699288919062781</v>
       </c>
       <c r="C19">
-        <v>0.4898394257969585</v>
+        <v>0.4898394257968448</v>
       </c>
       <c r="D19">
-        <v>0.007125040869529364</v>
+        <v>0.007125040869646604</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.641994225711443</v>
+        <v>1.641994225711429</v>
       </c>
       <c r="G19">
         <v>1.206373795767064</v>
@@ -1085,7 +1085,7 @@
         <v>0.9004214122509637</v>
       </c>
       <c r="K19">
-        <v>2.682931123147512</v>
+        <v>2.682931123147526</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.855162036350976</v>
+        <v>3.855162036350862</v>
       </c>
       <c r="C20">
         <v>0.5091003291935294</v>
       </c>
       <c r="D20">
-        <v>0.006729817833488028</v>
+        <v>0.006729817833480034</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.706164187382669</v>
+        <v>1.706164187382726</v>
       </c>
       <c r="G20">
         <v>1.252363419930063</v>
       </c>
       <c r="H20">
-        <v>0.846951579858505</v>
+        <v>0.8469515798585121</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.387542727355424</v>
+        <v>4.387542727355367</v>
       </c>
       <c r="C21">
-        <v>0.574399436617739</v>
+        <v>0.5743994366183074</v>
       </c>
       <c r="D21">
-        <v>0.005476425643525573</v>
+        <v>0.005476425643326621</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.930460766213301</v>
+        <v>1.930460766213272</v>
       </c>
       <c r="G21">
-        <v>1.413852141390976</v>
+        <v>1.413852141390961</v>
       </c>
       <c r="H21">
-        <v>0.9451669861516763</v>
+        <v>0.9451669861516621</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.065987291921346</v>
+        <v>1.065987291921303</v>
       </c>
       <c r="K21">
-        <v>3.259957821793506</v>
+        <v>3.259957821793492</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.743207528845403</v>
+        <v>4.743207528845517</v>
       </c>
       <c r="C22">
-        <v>0.6175928817374086</v>
+        <v>0.6175928817372949</v>
       </c>
       <c r="D22">
-        <v>0.004723633922013803</v>
+        <v>0.004723633921915216</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.084546093280863</v>
+        <v>2.084546093280849</v>
       </c>
       <c r="G22">
         <v>1.525403406586705</v>
       </c>
       <c r="H22">
-        <v>1.014034899255449</v>
+        <v>1.014034899255435</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.151350485955291</v>
+        <v>1.151350485955263</v>
       </c>
       <c r="K22">
         <v>3.568900715872957</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.552587415508924</v>
+        <v>4.552587415508981</v>
       </c>
       <c r="C23">
-        <v>0.5944869894274518</v>
+        <v>0.594486989427196</v>
       </c>
       <c r="D23">
-        <v>0.005118558113164084</v>
+        <v>0.00511855811306372</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.001551254658153</v>
+        <v>2.001551254658139</v>
       </c>
       <c r="G23">
-        <v>1.465259639555782</v>
+        <v>1.465259639555768</v>
       </c>
       <c r="H23">
-        <v>0.9768068913791694</v>
+        <v>0.9768068913791836</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>1.105616720837446</v>
       </c>
       <c r="K23">
-        <v>3.402372980814263</v>
+        <v>3.402372980814292</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1254,28 +1254,28 @@
         <v>0.5080406055348874</v>
       </c>
       <c r="D24">
-        <v>0.006751265787042549</v>
+        <v>0.00675126578704166</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.702609943272762</v>
+        <v>1.702609943272748</v>
       </c>
       <c r="G24">
-        <v>1.249813569897711</v>
+        <v>1.249813569897682</v>
       </c>
       <c r="H24">
-        <v>0.8454161788450847</v>
+        <v>0.8454161788450705</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9358927176039913</v>
+        <v>0.9358927176039771</v>
       </c>
       <c r="K24">
-        <v>2.804195524023584</v>
+        <v>2.804195524023612</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.110464040523595</v>
+        <v>3.110464040523709</v>
       </c>
       <c r="C25">
-        <v>0.4165094434605976</v>
+        <v>0.4165094434607113</v>
       </c>
       <c r="D25">
-        <v>0.008732427332267534</v>
+        <v>0.008732427332054371</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.406118000822659</v>
+        <v>1.406118000822673</v>
       </c>
       <c r="G25">
-        <v>1.038237079442382</v>
+        <v>1.038237079442368</v>
       </c>
       <c r="H25">
         <v>0.719954344521085</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7583933481787426</v>
+        <v>0.7583933481787639</v>
       </c>
       <c r="K25">
-        <v>2.20960852624296</v>
+        <v>2.209608526242931</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.58324328972401</v>
+        <v>2.583243289723896</v>
       </c>
       <c r="C2">
-        <v>0.3500870475645002</v>
+        <v>0.3500870475644149</v>
       </c>
       <c r="D2">
-        <v>0.01032624079729683</v>
+        <v>0.01032624079727285</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.204424289612177</v>
+        <v>1.204424289612192</v>
       </c>
       <c r="G2">
-        <v>0.895788130259632</v>
+        <v>0.8957881302596462</v>
       </c>
       <c r="H2">
         <v>0.6380820692431897</v>
@@ -439,7 +439,7 @@
         <v>0.6309298963709438</v>
       </c>
       <c r="K2">
-        <v>1.800794674401089</v>
+        <v>1.800794674401075</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,10 +453,10 @@
         <v>2.232278871093115</v>
       </c>
       <c r="C3">
-        <v>0.3054600337391378</v>
+        <v>0.3054600337391662</v>
       </c>
       <c r="D3">
-        <v>0.01147085183118879</v>
+        <v>0.0114708518310751</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -465,19 +465,19 @@
         <v>1.07576114866751</v>
       </c>
       <c r="G3">
-        <v>0.8057059375355067</v>
+        <v>0.8057059375354996</v>
       </c>
       <c r="H3">
-        <v>0.5877378879520236</v>
+        <v>0.5877378879520165</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5459207213167829</v>
+        <v>0.5459207213167971</v>
       </c>
       <c r="K3">
-        <v>1.536249368927159</v>
+        <v>1.536249368927145</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.019107323092186</v>
+        <v>2.019107323092214</v>
       </c>
       <c r="C4">
-        <v>0.2781866612771609</v>
+        <v>0.2781866612769335</v>
       </c>
       <c r="D4">
-        <v>0.01220036626653709</v>
+        <v>0.01220036626654153</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.000060580735436</v>
+        <v>1.00006058073545</v>
       </c>
       <c r="G4">
-        <v>0.7530552846110936</v>
+        <v>0.7530552846110794</v>
       </c>
       <c r="H4">
-        <v>0.558965708048575</v>
+        <v>0.5589657080485679</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4942224709163057</v>
+        <v>0.4942224709163128</v>
       </c>
       <c r="K4">
         <v>1.378496259870232</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.932716357239002</v>
+        <v>1.93271635723886</v>
       </c>
       <c r="C5">
-        <v>0.2670961610258473</v>
+        <v>0.2670961610258331</v>
       </c>
       <c r="D5">
-        <v>0.01250372923811405</v>
+        <v>0.01250372923817888</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,16 +541,16 @@
         <v>0.9699535671880142</v>
       </c>
       <c r="G5">
-        <v>0.7321987303057469</v>
+        <v>0.7321987303057398</v>
       </c>
       <c r="H5">
-        <v>0.5477259505167709</v>
+        <v>0.547725950516778</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4732564440025442</v>
+        <v>0.4732564440025584</v>
       </c>
       <c r="K5">
         <v>1.315194380360552</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.918397187500204</v>
+        <v>1.918397187500148</v>
       </c>
       <c r="C6">
-        <v>0.2652557820822494</v>
+        <v>0.2652557820823915</v>
       </c>
       <c r="D6">
-        <v>0.01255445283532897</v>
+        <v>0.01255445283526857</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9649966877362033</v>
+        <v>0.9649966877361749</v>
       </c>
       <c r="G6">
-        <v>0.7287697715305583</v>
+        <v>0.7287697715305441</v>
       </c>
       <c r="H6">
-        <v>0.5458874473620625</v>
+        <v>0.5458874473620767</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4697805260258789</v>
+        <v>0.4697805260258718</v>
       </c>
       <c r="K6">
-        <v>1.304737365795845</v>
+        <v>1.304737365795816</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.017940420469898</v>
+        <v>2.017940420469955</v>
       </c>
       <c r="C7">
-        <v>0.2780370060516617</v>
+        <v>0.2780370060513064</v>
       </c>
       <c r="D7">
-        <v>0.01220443368029223</v>
+        <v>0.01220443368010748</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>0.7527716681710288</v>
       </c>
       <c r="H7">
-        <v>0.5588122266581195</v>
+        <v>0.5588122266581266</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4939393347936019</v>
+        <v>0.4939393347935948</v>
       </c>
       <c r="K7">
         <v>1.377638803381657</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.461681735263085</v>
+        <v>2.461681735262971</v>
       </c>
       <c r="C8">
         <v>0.3346677832680314</v>
       </c>
       <c r="D8">
-        <v>0.01071494025758035</v>
+        <v>0.01071494025739295</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0.86413147427902</v>
       </c>
       <c r="H8">
-        <v>0.6202459573802273</v>
+        <v>0.6202459573802201</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0.6015003966072854</v>
       </c>
       <c r="K8">
-        <v>1.708484752878135</v>
+        <v>1.708484752878192</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.355702433231613</v>
+        <v>3.355702433231443</v>
       </c>
       <c r="C9">
-        <v>0.4471596195281506</v>
+        <v>0.4471596195280085</v>
       </c>
       <c r="D9">
-        <v>0.008040997230650326</v>
+        <v>0.008040997230530422</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.503066880321882</v>
+        <v>1.503066880321896</v>
       </c>
       <c r="G9">
-        <v>1.107160913609974</v>
+        <v>1.107160913610016</v>
       </c>
       <c r="H9">
-        <v>0.7603756777512203</v>
+        <v>0.7603756777512132</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0.8175883913472148</v>
       </c>
       <c r="K9">
-        <v>2.404547506402125</v>
+        <v>2.404547506402082</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.035816155498765</v>
+        <v>4.035816155498821</v>
       </c>
       <c r="C10">
-        <v>0.5313433512299355</v>
+        <v>0.5313433512297365</v>
       </c>
       <c r="D10">
-        <v>0.00628769908292881</v>
+        <v>0.006287699082920817</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.78139933452573</v>
+        <v>1.781399334525759</v>
       </c>
       <c r="G10">
         <v>1.306406673615854</v>
       </c>
       <c r="H10">
-        <v>0.8796107311472667</v>
+        <v>0.8796107311472952</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0.981437142452549</v>
       </c>
       <c r="K10">
-        <v>2.961752982539807</v>
+        <v>2.961752982539835</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.352623067772811</v>
+        <v>4.352623067772981</v>
       </c>
       <c r="C11">
-        <v>0.5701397732318867</v>
+        <v>0.5701397732317446</v>
       </c>
       <c r="D11">
-        <v>0.005554021200711468</v>
+        <v>0.005554021200594228</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.915512301646757</v>
+        <v>1.915512301646771</v>
       </c>
       <c r="G11">
         <v>1.40305570284724</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.057598893726663</v>
+        <v>1.057598893726649</v>
       </c>
       <c r="K11">
         <v>3.230032531333137</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.473892000267483</v>
+        <v>4.473892000267597</v>
       </c>
       <c r="C12">
-        <v>0.5849183660250503</v>
+        <v>0.5849183660249935</v>
       </c>
       <c r="D12">
-        <v>0.005287360763971627</v>
+        <v>0.005287360763860605</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>1.967564611059871</v>
       </c>
       <c r="G12">
-        <v>1.44067011543244</v>
+        <v>1.440670115432425</v>
       </c>
       <c r="H12">
         <v>0.9616514581158384</v>
@@ -819,7 +819,7 @@
         <v>1.086724541107557</v>
       </c>
       <c r="K12">
-        <v>3.334265492809038</v>
+        <v>3.334265492809067</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0.5817313923632241</v>
       </c>
       <c r="D13">
-        <v>0.005344257644383177</v>
+        <v>0.005344257644684269</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>1.956294540565452</v>
       </c>
       <c r="G13">
-        <v>1.432521329929159</v>
+        <v>1.432521329929187</v>
       </c>
       <c r="H13">
         <v>0.9566376121961326</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.080438240124963</v>
+        <v>1.080438240124948</v>
       </c>
       <c r="K13">
         <v>3.311690199834786</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.362572375538491</v>
+        <v>4.362572375538605</v>
       </c>
       <c r="C14">
-        <v>0.5713537757993947</v>
+        <v>0.5713537757991958</v>
       </c>
       <c r="D14">
-        <v>0.0055318460797249</v>
+        <v>0.005531846079707137</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.059989047328131</v>
+        <v>1.059989047328116</v>
       </c>
       <c r="K14">
-        <v>3.238551564159692</v>
+        <v>3.238551564159707</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.310598636331292</v>
+        <v>4.310598636331406</v>
       </c>
       <c r="C15">
-        <v>0.5650090250918254</v>
+        <v>0.5650090250916548</v>
       </c>
       <c r="D15">
-        <v>0.005648270336097383</v>
+        <v>0.00564827033609383</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.897565678839825</v>
+        <v>1.897565678839811</v>
       </c>
       <c r="G15">
         <v>1.390100031161225</v>
       </c>
       <c r="H15">
-        <v>0.9306066281744165</v>
+        <v>0.9306066281743881</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.01528050392335</v>
+        <v>4.015280503923293</v>
       </c>
       <c r="C16">
-        <v>0.5288192556061801</v>
+        <v>0.5288192556062654</v>
       </c>
       <c r="D16">
-        <v>0.006337091527247374</v>
+        <v>0.006337091527364613</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.772801035211486</v>
+        <v>1.772801035211472</v>
       </c>
       <c r="G16">
         <v>1.300223749784564</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9764966906270871</v>
+        <v>0.9764966906271013</v>
       </c>
       <c r="K16">
-        <v>2.944559530418047</v>
+        <v>2.944559530418033</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.836167316619992</v>
+        <v>3.836167316619822</v>
       </c>
       <c r="C17">
         <v>0.5067566022155745</v>
       </c>
       <c r="D17">
-        <v>0.006777299497910505</v>
+        <v>0.006777299497905176</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.698307164156304</v>
+        <v>1.698307164156319</v>
       </c>
       <c r="G17">
-        <v>1.246727112870971</v>
+        <v>1.246727112870985</v>
       </c>
       <c r="H17">
         <v>0.8435583377338816</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9333874741833625</v>
+        <v>0.9333874741833768</v>
       </c>
       <c r="K17">
         <v>2.795589748915376</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.733828431643758</v>
+        <v>3.733828431643701</v>
       </c>
       <c r="C18">
-        <v>0.4941128848151379</v>
+        <v>0.4941128848152516</v>
       </c>
       <c r="D18">
-        <v>0.007036368832294748</v>
+        <v>0.007036368832271656</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.656153118308765</v>
+        <v>1.656153118308779</v>
       </c>
       <c r="G18">
         <v>1.216512693661201</v>
       </c>
       <c r="H18">
-        <v>0.8254111475544192</v>
+        <v>0.8254111475544263</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0.9087417624403002</v>
       </c>
       <c r="K18">
-        <v>2.711263388416697</v>
+        <v>2.711263388416725</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>3.699288919062781</v>
       </c>
       <c r="C19">
-        <v>0.4898394257968448</v>
+        <v>0.4898394257969585</v>
       </c>
       <c r="D19">
-        <v>0.007125040869646604</v>
+        <v>0.007125040869529364</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.641994225711429</v>
+        <v>1.641994225711443</v>
       </c>
       <c r="G19">
         <v>1.206373795767064</v>
@@ -1085,7 +1085,7 @@
         <v>0.9004214122509637</v>
       </c>
       <c r="K19">
-        <v>2.682931123147526</v>
+        <v>2.682931123147512</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.855162036350862</v>
+        <v>3.855162036350976</v>
       </c>
       <c r="C20">
         <v>0.5091003291935294</v>
       </c>
       <c r="D20">
-        <v>0.006729817833480034</v>
+        <v>0.006729817833488028</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.706164187382726</v>
+        <v>1.706164187382669</v>
       </c>
       <c r="G20">
         <v>1.252363419930063</v>
       </c>
       <c r="H20">
-        <v>0.8469515798585121</v>
+        <v>0.846951579858505</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.387542727355367</v>
+        <v>4.387542727355424</v>
       </c>
       <c r="C21">
-        <v>0.5743994366183074</v>
+        <v>0.574399436617739</v>
       </c>
       <c r="D21">
-        <v>0.005476425643326621</v>
+        <v>0.005476425643525573</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.930460766213272</v>
+        <v>1.930460766213301</v>
       </c>
       <c r="G21">
-        <v>1.413852141390961</v>
+        <v>1.413852141390976</v>
       </c>
       <c r="H21">
-        <v>0.9451669861516621</v>
+        <v>0.9451669861516763</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.065987291921303</v>
+        <v>1.065987291921346</v>
       </c>
       <c r="K21">
-        <v>3.259957821793492</v>
+        <v>3.259957821793506</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.743207528845517</v>
+        <v>4.743207528845403</v>
       </c>
       <c r="C22">
-        <v>0.6175928817372949</v>
+        <v>0.6175928817374086</v>
       </c>
       <c r="D22">
-        <v>0.004723633921915216</v>
+        <v>0.004723633922013803</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.084546093280849</v>
+        <v>2.084546093280863</v>
       </c>
       <c r="G22">
         <v>1.525403406586705</v>
       </c>
       <c r="H22">
-        <v>1.014034899255435</v>
+        <v>1.014034899255449</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.151350485955263</v>
+        <v>1.151350485955291</v>
       </c>
       <c r="K22">
         <v>3.568900715872957</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.552587415508981</v>
+        <v>4.552587415508924</v>
       </c>
       <c r="C23">
-        <v>0.594486989427196</v>
+        <v>0.5944869894274518</v>
       </c>
       <c r="D23">
-        <v>0.00511855811306372</v>
+        <v>0.005118558113164084</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.001551254658139</v>
+        <v>2.001551254658153</v>
       </c>
       <c r="G23">
-        <v>1.465259639555768</v>
+        <v>1.465259639555782</v>
       </c>
       <c r="H23">
-        <v>0.9768068913791836</v>
+        <v>0.9768068913791694</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>1.105616720837446</v>
       </c>
       <c r="K23">
-        <v>3.402372980814292</v>
+        <v>3.402372980814263</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1254,28 +1254,28 @@
         <v>0.5080406055348874</v>
       </c>
       <c r="D24">
-        <v>0.00675126578704166</v>
+        <v>0.006751265787042549</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.702609943272748</v>
+        <v>1.702609943272762</v>
       </c>
       <c r="G24">
-        <v>1.249813569897682</v>
+        <v>1.249813569897711</v>
       </c>
       <c r="H24">
-        <v>0.8454161788450705</v>
+        <v>0.8454161788450847</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9358927176039771</v>
+        <v>0.9358927176039913</v>
       </c>
       <c r="K24">
-        <v>2.804195524023612</v>
+        <v>2.804195524023584</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.110464040523709</v>
+        <v>3.110464040523595</v>
       </c>
       <c r="C25">
-        <v>0.4165094434607113</v>
+        <v>0.4165094434605976</v>
       </c>
       <c r="D25">
-        <v>0.008732427332054371</v>
+        <v>0.008732427332267534</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.406118000822673</v>
+        <v>1.406118000822659</v>
       </c>
       <c r="G25">
-        <v>1.038237079442368</v>
+        <v>1.038237079442382</v>
       </c>
       <c r="H25">
         <v>0.719954344521085</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7583933481787639</v>
+        <v>0.7583933481787426</v>
       </c>
       <c r="K25">
-        <v>2.209608526242931</v>
+        <v>2.20960852624296</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.583243289723896</v>
+        <v>2.58321308120253</v>
       </c>
       <c r="C2">
-        <v>0.3500870475644149</v>
+        <v>0.3498695635939555</v>
       </c>
       <c r="D2">
-        <v>0.01032624079727285</v>
+        <v>0.01033858579889468</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.204424289612192</v>
+        <v>1.202747364087529</v>
       </c>
       <c r="G2">
-        <v>0.8957881302596462</v>
+        <v>0.2846079309536407</v>
       </c>
       <c r="H2">
-        <v>0.6380820692431897</v>
+        <v>0.6136819259277217</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6370104319706442</v>
       </c>
       <c r="J2">
-        <v>0.6309298963709438</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.800794674401075</v>
+        <v>0.6308403485838241</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.800766383369947</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.232278871093115</v>
+        <v>2.232279107248075</v>
       </c>
       <c r="C3">
-        <v>0.3054600337391662</v>
+        <v>0.3052786567359931</v>
       </c>
       <c r="D3">
-        <v>0.0114708518310751</v>
+        <v>0.01147923871627299</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.07576114866751</v>
+        <v>1.07427703814632</v>
       </c>
       <c r="G3">
-        <v>0.8057059375354996</v>
+        <v>0.2519563547814414</v>
       </c>
       <c r="H3">
-        <v>0.5877378879520165</v>
+        <v>0.5565180802713385</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5867830847569024</v>
       </c>
       <c r="J3">
-        <v>0.5459207213167971</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.536249368927145</v>
+        <v>0.5458503496269387</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.536234491685292</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.019107323092214</v>
+        <v>2.019122829198153</v>
       </c>
       <c r="C4">
-        <v>0.2781866612769335</v>
+        <v>0.278026896033623</v>
       </c>
       <c r="D4">
-        <v>0.01220036626654153</v>
+        <v>0.01220618315755306</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.00006058073545</v>
+        <v>0.9986913821157799</v>
       </c>
       <c r="G4">
-        <v>0.7530552846110794</v>
+        <v>0.2327654916421693</v>
       </c>
       <c r="H4">
-        <v>0.5589657080485679</v>
+        <v>0.5232174412542534</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.558080654446961</v>
       </c>
       <c r="J4">
-        <v>0.4942224709163128</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.378496259870232</v>
+        <v>0.4941629630312576</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.378487864749715</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.93271635723886</v>
+        <v>1.932737344863938</v>
       </c>
       <c r="C5">
-        <v>0.2670961610258331</v>
+        <v>0.2669450859319227</v>
       </c>
       <c r="D5">
-        <v>0.01250372923817888</v>
+        <v>0.01250846648986759</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9699535671880142</v>
+        <v>0.9686304518403688</v>
       </c>
       <c r="G5">
-        <v>0.7321987303057398</v>
+        <v>0.2251366819691754</v>
       </c>
       <c r="H5">
-        <v>0.547725950516778</v>
+        <v>0.510053556385671</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5468688963455151</v>
       </c>
       <c r="J5">
-        <v>0.4732564440025584</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.315194380360552</v>
+        <v>0.4732011671729168</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.315188272577487</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.918397187500148</v>
+        <v>1.918419043792881</v>
       </c>
       <c r="C6">
-        <v>0.2652557820823915</v>
+        <v>0.2651061435717708</v>
       </c>
       <c r="D6">
-        <v>0.01255445283526857</v>
+        <v>0.01255900893524764</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9649966877361749</v>
+        <v>0.9636811830522447</v>
       </c>
       <c r="G6">
-        <v>0.7287697715305441</v>
+        <v>0.2238808384719846</v>
       </c>
       <c r="H6">
-        <v>0.5458874473620767</v>
+        <v>0.5078909895669099</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5450350189022615</v>
       </c>
       <c r="J6">
-        <v>0.4697805260258718</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.304737365795816</v>
+        <v>0.4697259408110455</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.304731618670019</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.017940420469955</v>
+        <v>2.017956003354556</v>
       </c>
       <c r="C7">
-        <v>0.2780370060513064</v>
+        <v>0.2778773584499419</v>
       </c>
       <c r="D7">
-        <v>0.01220443368010748</v>
+        <v>0.01221023613857675</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9996516549030758</v>
+        <v>0.9982830806308698</v>
       </c>
       <c r="G7">
-        <v>0.7527716681710288</v>
+        <v>0.2326618610425157</v>
       </c>
       <c r="H7">
-        <v>0.5588122266581266</v>
+        <v>0.5230383204639963</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5579275522903515</v>
       </c>
       <c r="J7">
-        <v>0.4939393347935948</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.377638803381657</v>
+        <v>0.4938798847230075</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.377630440439873</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.461681735262971</v>
+        <v>2.461662811391989</v>
       </c>
       <c r="C8">
-        <v>0.3346677832680314</v>
+        <v>0.3344628796722304</v>
       </c>
       <c r="D8">
-        <v>0.01071494025739295</v>
+        <v>0.01072595127590237</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.159320899737594</v>
+        <v>1.15771126184552</v>
       </c>
       <c r="G8">
-        <v>0.86413147427902</v>
+        <v>0.2731565781667484</v>
       </c>
       <c r="H8">
-        <v>0.6202459573802201</v>
+        <v>0.593569680330873</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.6192150653400006</v>
       </c>
       <c r="J8">
-        <v>0.6015003966072854</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.708484752878192</v>
+        <v>0.6014176707305836</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.708461508733308</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.355702433231443</v>
+        <v>3.355582365278053</v>
       </c>
       <c r="C9">
-        <v>0.4471596195280085</v>
+        <v>0.4468603492001932</v>
       </c>
       <c r="D9">
-        <v>0.008040997230530422</v>
+        <v>0.008060967909394812</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.503066880321896</v>
+        <v>1.500950106987375</v>
       </c>
       <c r="G9">
-        <v>1.107160913610016</v>
+        <v>0.3605847541456768</v>
       </c>
       <c r="H9">
-        <v>0.7603756777512132</v>
+        <v>0.748470655496746</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.75903831136403</v>
       </c>
       <c r="J9">
-        <v>0.8175883913472148</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.404547506402082</v>
+        <v>0.817451079448638</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.404476135750883</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.035816155498821</v>
+        <v>4.035590751433745</v>
       </c>
       <c r="C10">
-        <v>0.5313433512297365</v>
+        <v>0.5309694264271343</v>
       </c>
       <c r="D10">
-        <v>0.006287699082920817</v>
+        <v>0.006313243113091005</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.781399334525759</v>
+        <v>1.778877652686646</v>
       </c>
       <c r="G10">
-        <v>1.306406673615854</v>
+        <v>0.4316480188656584</v>
       </c>
       <c r="H10">
-        <v>0.8796107311472952</v>
+        <v>0.876095999585246</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.8780295159141502</v>
       </c>
       <c r="J10">
-        <v>0.981437142452549</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.961752982539835</v>
+        <v>0.9812514227580351</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>2.961625261406624</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.352623067772981</v>
+        <v>4.352339947110238</v>
       </c>
       <c r="C11">
-        <v>0.5701397732317446</v>
+        <v>0.5697302273002833</v>
       </c>
       <c r="D11">
-        <v>0.005554021200594228</v>
+        <v>0.005581810868975801</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.915512301646771</v>
+        <v>1.912796195324503</v>
       </c>
       <c r="G11">
-        <v>1.40305570284724</v>
+        <v>0.4659787852749986</v>
       </c>
       <c r="H11">
-        <v>0.938543963485543</v>
+        <v>0.9381474636982148</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.9368458655609402</v>
       </c>
       <c r="J11">
-        <v>1.057598893726649</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3.230032531333137</v>
+        <v>1.057388542825677</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.229871485705715</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.473892000267597</v>
+        <v>4.473585286599132</v>
       </c>
       <c r="C12">
-        <v>0.5849183660249935</v>
+        <v>0.5844950427750462</v>
       </c>
       <c r="D12">
-        <v>0.005287360763860605</v>
+        <v>0.005315951513881423</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.967564611059871</v>
+        <v>1.96477307339751</v>
       </c>
       <c r="G12">
-        <v>1.440670115432425</v>
+        <v>0.4793190726541923</v>
       </c>
       <c r="H12">
-        <v>0.9616514581158384</v>
+        <v>0.9623182182452155</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.959908043062029</v>
       </c>
       <c r="J12">
-        <v>1.086724541107557</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>3.334265492809067</v>
+        <v>1.086504402696704</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.334090345632703</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.447712536180461</v>
+        <v>4.447410986979662</v>
       </c>
       <c r="C13">
-        <v>0.5817313923632241</v>
+        <v>0.5813110500034497</v>
       </c>
       <c r="D13">
-        <v>0.005344257644684269</v>
+        <v>0.005372678200367353</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.956294540565452</v>
+        <v>1.953519334886806</v>
       </c>
       <c r="G13">
-        <v>1.432521329929187</v>
+        <v>0.476429962303726</v>
       </c>
       <c r="H13">
-        <v>0.9566376121961326</v>
+        <v>0.9570809174771142</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.9549040076324502</v>
       </c>
       <c r="J13">
-        <v>1.080438240124948</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3.311690199834786</v>
+        <v>1.080220231644986</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.311518162967729</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.362572375538605</v>
+        <v>4.362287350824431</v>
       </c>
       <c r="C14">
-        <v>0.5713537757991958</v>
+        <v>0.5709431024909861</v>
       </c>
       <c r="D14">
-        <v>0.005531846079707137</v>
+        <v>0.005559702691278368</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.91976809955581</v>
+        <v>1.917045825848021</v>
       </c>
       <c r="G14">
-        <v>1.406128953570175</v>
+        <v>0.4670691568967555</v>
       </c>
       <c r="H14">
-        <v>0.9404284468255497</v>
+        <v>0.9401218880330759</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.9387266431037631</v>
       </c>
       <c r="J14">
-        <v>1.059989047328116</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>3.238551564159707</v>
+        <v>1.059777900976897</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.238389390702366</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.310598636331406</v>
+        <v>4.310323496128603</v>
       </c>
       <c r="C15">
-        <v>0.5650090250916548</v>
+        <v>0.5646042351986296</v>
       </c>
       <c r="D15">
-        <v>0.00564827033609383</v>
+        <v>0.005675774839758674</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.897565678839811</v>
+        <v>1.894875580979445</v>
       </c>
       <c r="G15">
-        <v>1.390100031161225</v>
+        <v>0.4613813550915324</v>
       </c>
       <c r="H15">
-        <v>0.9306066281743881</v>
+        <v>0.9298248825936355</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.9289241591598199</v>
       </c>
       <c r="J15">
-        <v>1.047502078058798</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>3.194113140256434</v>
+        <v>1.047295072201649</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.193956802092075</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.015280503923293</v>
+        <v>4.015058648200693</v>
       </c>
       <c r="C16">
-        <v>0.5288192556062654</v>
+        <v>0.528447621245931</v>
       </c>
       <c r="D16">
-        <v>0.006337091527364613</v>
+        <v>0.006362482356074395</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.772801035211472</v>
+        <v>1.770291826463719</v>
       </c>
       <c r="G16">
-        <v>1.300223749784564</v>
+        <v>0.4294489812564422</v>
       </c>
       <c r="H16">
-        <v>0.8758632053826858</v>
+        <v>0.8721292465864394</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.8742894927543574</v>
       </c>
       <c r="J16">
-        <v>0.9764966906271013</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2.944559530418033</v>
+        <v>0.9763125212559487</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>2.944433802884433</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.836167316619822</v>
+        <v>3.83597542813942</v>
       </c>
       <c r="C17">
-        <v>0.5067566022155745</v>
+        <v>0.5064048494367341</v>
       </c>
       <c r="D17">
-        <v>0.006777299497905176</v>
+        <v>0.006801314539494285</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.698307164156319</v>
+        <v>1.695906086912956</v>
       </c>
       <c r="G17">
-        <v>1.246727112870985</v>
+        <v>0.410406988183226</v>
       </c>
       <c r="H17">
-        <v>0.8435583377338816</v>
+        <v>0.8378232160947192</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.8420496891305049</v>
       </c>
       <c r="J17">
-        <v>0.9333874741833768</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>2.795589748915376</v>
+        <v>0.9332165906411092</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.795480598339267</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.733828431643701</v>
+        <v>3.733652880576585</v>
       </c>
       <c r="C18">
-        <v>0.4941128848152516</v>
+        <v>0.4937724144855054</v>
       </c>
       <c r="D18">
-        <v>0.007036368832271656</v>
+        <v>0.007059565833376524</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.656153118308779</v>
+        <v>1.653813296287439</v>
       </c>
       <c r="G18">
-        <v>1.216512693661201</v>
+        <v>0.3996395822568672</v>
       </c>
       <c r="H18">
-        <v>0.8254111475544263</v>
+        <v>0.8184604543007765</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.823939375734966</v>
       </c>
       <c r="J18">
-        <v>0.9087417624403002</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2.711263388416725</v>
+        <v>0.9085782808505485</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.711163076965306</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.699288919062781</v>
+        <v>3.699118754015615</v>
       </c>
       <c r="C19">
-        <v>0.4898394257969585</v>
+        <v>0.4895027506400424</v>
       </c>
       <c r="D19">
-        <v>0.007125040869529364</v>
+        <v>0.007147956512149278</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.641994225711443</v>
+        <v>1.639674991497529</v>
       </c>
       <c r="G19">
-        <v>1.206373795767064</v>
+        <v>0.3960242612319149</v>
       </c>
       <c r="H19">
-        <v>0.8193380881660914</v>
+        <v>0.8119652043304484</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.8178787137810986</v>
       </c>
       <c r="J19">
-        <v>0.9004214122509637</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2.682931123147512</v>
+        <v>0.9002603979745061</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.682833694617642</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.855162036350976</v>
+        <v>3.854967052990901</v>
       </c>
       <c r="C20">
-        <v>0.5091003291935294</v>
+        <v>0.5087464761471665</v>
       </c>
       <c r="D20">
-        <v>0.006729817833488028</v>
+        <v>0.006753982145959014</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.706164187382669</v>
+        <v>1.703751698770816</v>
       </c>
       <c r="G20">
-        <v>1.252363419930063</v>
+        <v>0.412414540893181</v>
       </c>
       <c r="H20">
-        <v>0.846951579858505</v>
+        <v>0.8414362800759676</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.8454360629349225</v>
       </c>
       <c r="J20">
-        <v>0.9379607003530452</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>2.811304011633283</v>
+        <v>0.9377884278795392</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2.81119317074328</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.387542727355424</v>
+        <v>4.387252899129066</v>
       </c>
       <c r="C21">
-        <v>0.574399436617739</v>
+        <v>0.5739859315345939</v>
       </c>
       <c r="D21">
-        <v>0.005476425643525573</v>
+        <v>0.005504449306456216</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.930460766213301</v>
+        <v>1.927722997179714</v>
       </c>
       <c r="G21">
-        <v>1.413852141390976</v>
+        <v>0.4698089687253884</v>
       </c>
       <c r="H21">
-        <v>0.9451669861516763</v>
+        <v>0.9450840240946405</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.9434558722294071</v>
       </c>
       <c r="J21">
-        <v>1.065987291921346</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>3.259957821793506</v>
+        <v>1.06577414325308</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.25979279506943</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.743207528845403</v>
+        <v>4.742845378359675</v>
       </c>
       <c r="C22">
-        <v>0.6175928817374086</v>
+        <v>0.6171386808832722</v>
       </c>
       <c r="D22">
-        <v>0.004723633922013803</v>
+        <v>0.004753887646550048</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.084546093280863</v>
+        <v>2.081584990207375</v>
       </c>
       <c r="G22">
-        <v>1.525403406586705</v>
+        <v>0.509331973463091</v>
       </c>
       <c r="H22">
-        <v>1.014034899255449</v>
+        <v>1.016806540376379</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.012189667892486</v>
       </c>
       <c r="J22">
-        <v>1.151350485955291</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>3.568900715872957</v>
+        <v>1.15110788638016</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.568691359964916</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.552587415508924</v>
+        <v>4.552264939700137</v>
       </c>
       <c r="C23">
-        <v>0.5944869894274518</v>
+        <v>0.5940546835897464</v>
       </c>
       <c r="D23">
-        <v>0.005118558113164084</v>
+        <v>0.005147651366032235</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.001551254658153</v>
+        <v>1.998710463105795</v>
       </c>
       <c r="G23">
-        <v>1.465259639555782</v>
+        <v>0.4880341338505616</v>
       </c>
       <c r="H23">
-        <v>0.9768068913791694</v>
+        <v>0.9781252280310468</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.9750338941957182</v>
       </c>
       <c r="J23">
-        <v>1.105616720837446</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>3.402372980814263</v>
+        <v>1.105390123146734</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.402188259815233</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.846572560684876</v>
+        <v>3.846378979272231</v>
       </c>
       <c r="C24">
-        <v>0.5080406055348874</v>
+        <v>0.507687702476062</v>
       </c>
       <c r="D24">
-        <v>0.006751265787042549</v>
+        <v>0.006775362698058451</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.702609943272762</v>
+        <v>1.70020261655371</v>
       </c>
       <c r="G24">
-        <v>1.249813569897711</v>
+        <v>0.4115063691696719</v>
       </c>
       <c r="H24">
-        <v>0.8454161788450847</v>
+        <v>0.8398016990530976</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.8439037687234077</v>
       </c>
       <c r="J24">
-        <v>0.9358927176039913</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2.804195524023584</v>
+        <v>0.9357210737960031</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2.804085449451392</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.110464040523595</v>
+        <v>3.110375898544362</v>
       </c>
       <c r="C25">
-        <v>0.4165094434605976</v>
+        <v>0.4162364843546413</v>
       </c>
       <c r="D25">
-        <v>0.008732427332267534</v>
+        <v>0.008750131031717956</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.406118000822659</v>
+        <v>1.404143159850292</v>
       </c>
       <c r="G25">
-        <v>1.038237079442382</v>
+        <v>0.3358900400232301</v>
       </c>
       <c r="H25">
-        <v>0.719954344521085</v>
+        <v>0.7044372686315228</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7187026176208775</v>
       </c>
       <c r="J25">
-        <v>0.7583933481787426</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2.20960852624296</v>
+        <v>0.758272025848008</v>
       </c>
       <c r="L25">
+        <v>2.209553022896188</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.58321308120253</v>
+        <v>2.75183413596767</v>
       </c>
       <c r="C2">
-        <v>0.3498695635939555</v>
+        <v>0.645845635562722</v>
       </c>
       <c r="D2">
-        <v>0.01033858579889468</v>
+        <v>0.01066718662843869</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.202747364087529</v>
+        <v>2.626665202249256</v>
       </c>
       <c r="G2">
-        <v>0.2846079309536407</v>
+        <v>0.000812105227465084</v>
       </c>
       <c r="H2">
-        <v>0.6136819259277217</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6370104319706442</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1266127241738886</v>
       </c>
       <c r="K2">
-        <v>0.6308403485838241</v>
+        <v>0.7639042815637112</v>
       </c>
       <c r="L2">
-        <v>1.800766383369947</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.7390606583851564</v>
+      </c>
+      <c r="N2">
+        <v>1.487430323868963</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.232279107248075</v>
+        <v>2.389173441992</v>
       </c>
       <c r="C3">
-        <v>0.3052786567359931</v>
+        <v>0.5576319574124966</v>
       </c>
       <c r="D3">
-        <v>0.01147923871627299</v>
+        <v>0.00982219678502716</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.07427703814632</v>
+        <v>2.419897035294312</v>
       </c>
       <c r="G3">
-        <v>0.2519563547814414</v>
+        <v>0.0008209075408110541</v>
       </c>
       <c r="H3">
-        <v>0.5565180802713385</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5867830847569024</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1184858129511284</v>
       </c>
       <c r="K3">
-        <v>0.5458503496269387</v>
+        <v>0.6621885516671924</v>
       </c>
       <c r="L3">
-        <v>1.536234491685292</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.6465636655344156</v>
+      </c>
+      <c r="N3">
+        <v>1.506704609058289</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.019122829198153</v>
+        <v>2.170712307308918</v>
       </c>
       <c r="C4">
-        <v>0.278026896033623</v>
+        <v>0.5044836784907147</v>
       </c>
       <c r="D4">
-        <v>0.01220618315755306</v>
+        <v>0.009312087875983366</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9986913821157799</v>
+        <v>2.298199846909114</v>
       </c>
       <c r="G4">
-        <v>0.2327654916421693</v>
+        <v>0.0008264527339099535</v>
       </c>
       <c r="H4">
-        <v>0.5232174412542534</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.558080654446961</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1137130360790266</v>
       </c>
       <c r="K4">
-        <v>0.4941629630312576</v>
+        <v>0.6009126176684276</v>
       </c>
       <c r="L4">
-        <v>1.378487864749715</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.590936870993751</v>
+      </c>
+      <c r="N4">
+        <v>1.52064882667807</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.932737344863938</v>
+        <v>2.082612292601084</v>
       </c>
       <c r="C5">
-        <v>0.2669450859319227</v>
+        <v>0.4830456540800867</v>
       </c>
       <c r="D5">
-        <v>0.01250846648986759</v>
+        <v>0.009106198313528324</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9686304518403688</v>
+        <v>2.249807280869433</v>
       </c>
       <c r="G5">
-        <v>0.2251366819691754</v>
+        <v>0.0008287495513736323</v>
       </c>
       <c r="H5">
-        <v>0.510053556385671</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5468688963455151</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1118183068560725</v>
       </c>
       <c r="K5">
-        <v>0.4732011671729168</v>
+        <v>0.5761999190300955</v>
       </c>
       <c r="L5">
-        <v>1.315188272577487</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5685271798525307</v>
+      </c>
+      <c r="N5">
+        <v>1.526830064978853</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.918419043792881</v>
+        <v>2.068035471146857</v>
       </c>
       <c r="C6">
-        <v>0.2651061435717708</v>
+        <v>0.4794982294347392</v>
       </c>
       <c r="D6">
-        <v>0.01255900893524764</v>
+        <v>0.009072124832472994</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9636811830522447</v>
+        <v>2.241840826794729</v>
       </c>
       <c r="G6">
-        <v>0.2238808384719846</v>
+        <v>0.0008291332264082987</v>
       </c>
       <c r="H6">
-        <v>0.5078909895669099</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5450350189022615</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1115065998461802</v>
       </c>
       <c r="K6">
-        <v>0.4697259408110455</v>
+        <v>0.5721108991322481</v>
       </c>
       <c r="L6">
-        <v>1.304731618670019</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5648207323413104</v>
+      </c>
+      <c r="N6">
+        <v>1.527885711115502</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.017956003354556</v>
+        <v>2.169520585796761</v>
       </c>
       <c r="C7">
-        <v>0.2778773584499419</v>
+        <v>0.5041937096796687</v>
       </c>
       <c r="D7">
-        <v>0.01221023613857675</v>
+        <v>0.009309303397158075</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9982830806308698</v>
+        <v>2.297542503276915</v>
       </c>
       <c r="G7">
-        <v>0.2326618610425157</v>
+        <v>0.0008264835571066972</v>
       </c>
       <c r="H7">
-        <v>0.5230383204639963</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5579275522903515</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.113687285318278</v>
       </c>
       <c r="K7">
-        <v>0.4938798847230075</v>
+        <v>0.6005783384231762</v>
       </c>
       <c r="L7">
-        <v>1.377630440439873</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.59063364240982</v>
+      </c>
+      <c r="N7">
+        <v>1.520730208993399</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.461662811391989</v>
+        <v>2.62582906658082</v>
       </c>
       <c r="C8">
-        <v>0.3344628796722304</v>
+        <v>0.6151967765839572</v>
       </c>
       <c r="D8">
-        <v>0.01072595127590237</v>
+        <v>0.01037388885057489</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.15771126184552</v>
+        <v>2.554202834701385</v>
       </c>
       <c r="G8">
-        <v>0.2731565781667484</v>
+        <v>0.0008151122065583783</v>
       </c>
       <c r="H8">
-        <v>0.593569680330873</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6192150653400006</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1237627234584338</v>
       </c>
       <c r="K8">
-        <v>0.6014176707305836</v>
+        <v>0.7285639760993874</v>
       </c>
       <c r="L8">
-        <v>1.708461508733308</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.7069036741567558</v>
+      </c>
+      <c r="N8">
+        <v>1.493618283499998</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.355582365278053</v>
+        <v>3.560875295092444</v>
       </c>
       <c r="C9">
-        <v>0.4468603492001932</v>
+        <v>0.8426938509552997</v>
       </c>
       <c r="D9">
-        <v>0.008060967909394812</v>
+        <v>0.01254210420302826</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.500950106987375</v>
+        <v>3.105393002530491</v>
       </c>
       <c r="G9">
-        <v>0.3605847541456768</v>
+        <v>0.0007938399085733345</v>
       </c>
       <c r="H9">
-        <v>0.748470655496746</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.75903831136403</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1454641682747067</v>
       </c>
       <c r="K9">
-        <v>0.817451079448638</v>
+        <v>0.9908261927276811</v>
       </c>
       <c r="L9">
-        <v>2.404476135750883</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.9459119558644673</v>
+      </c>
+      <c r="N9">
+        <v>1.458778320864056</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.035590751433745</v>
+        <v>4.283065166899121</v>
       </c>
       <c r="C10">
-        <v>0.5309694264271343</v>
+        <v>1.018611092465335</v>
       </c>
       <c r="D10">
-        <v>0.006313243113091005</v>
+        <v>0.01420368532046723</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.778877652686646</v>
+        <v>3.549209553414471</v>
       </c>
       <c r="G10">
-        <v>0.4316480188656584</v>
+        <v>0.0007786993889329352</v>
       </c>
       <c r="H10">
-        <v>0.876095999585246</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8780295159141502</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1629384995453549</v>
       </c>
       <c r="K10">
-        <v>0.9812514227580351</v>
+        <v>1.193439358147515</v>
       </c>
       <c r="L10">
-        <v>2.961625261406624</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.130965656132105</v>
+      </c>
+      <c r="N10">
+        <v>1.446847507947865</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.352339947110238</v>
+        <v>4.622031793738643</v>
       </c>
       <c r="C11">
-        <v>0.5697302273002833</v>
+        <v>1.101274908217306</v>
       </c>
       <c r="D11">
-        <v>0.005581810868975801</v>
+        <v>0.01498003466483055</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.912796195324503</v>
+        <v>3.762065815427604</v>
       </c>
       <c r="G11">
-        <v>0.4659787852749986</v>
+        <v>0.0007718821072375384</v>
       </c>
       <c r="H11">
-        <v>0.9381474636982148</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9368458655609402</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1713097544089663</v>
       </c>
       <c r="K11">
-        <v>1.057388542825677</v>
+        <v>1.28856349141202</v>
       </c>
       <c r="L11">
-        <v>3.229871485705715</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.217917675182505</v>
+      </c>
+      <c r="N11">
+        <v>1.445039398508214</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.473585286599132</v>
+        <v>4.752159848616657</v>
       </c>
       <c r="C12">
-        <v>0.5844950427750462</v>
+        <v>1.133027952563225</v>
       </c>
       <c r="D12">
-        <v>0.005315951513881423</v>
+        <v>0.01527754068842668</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.96477307339751</v>
+        <v>3.844489655174954</v>
       </c>
       <c r="G12">
-        <v>0.4793190726541923</v>
+        <v>0.0007693072651073655</v>
       </c>
       <c r="H12">
-        <v>0.9623182182452155</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.959908043062029</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1745490750737986</v>
       </c>
       <c r="K12">
-        <v>1.086504402696704</v>
+        <v>1.32508641277532</v>
       </c>
       <c r="L12">
-        <v>3.334090345632703</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.2513115528334</v>
+      </c>
+      <c r="N12">
+        <v>1.44493910312616</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.447410986979662</v>
+        <v>4.724051110263645</v>
       </c>
       <c r="C13">
-        <v>0.5813110500034497</v>
+        <v>1.126168114071675</v>
       </c>
       <c r="D13">
-        <v>0.005372678200367353</v>
+        <v>0.01521330057142833</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.953519334886806</v>
+        <v>3.826653022731136</v>
       </c>
       <c r="G13">
-        <v>0.476429962303726</v>
+        <v>0.0007698615636463213</v>
       </c>
       <c r="H13">
-        <v>0.9570809174771142</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9549040076324502</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1738481970260963</v>
       </c>
       <c r="K13">
-        <v>1.080220231644986</v>
+        <v>1.317196907383405</v>
       </c>
       <c r="L13">
-        <v>3.311518162967729</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.244097614813228</v>
+      </c>
+      <c r="N13">
+        <v>1.444933594647068</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.362287350824431</v>
+        <v>4.632700391256151</v>
       </c>
       <c r="C14">
-        <v>0.5709431024909861</v>
+        <v>1.103877789107685</v>
       </c>
       <c r="D14">
-        <v>0.005559702691278368</v>
+        <v>0.0150044364445634</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.917045825848021</v>
+        <v>3.768808885485328</v>
       </c>
       <c r="G14">
-        <v>0.4670691568967555</v>
+        <v>0.0007716701598635374</v>
       </c>
       <c r="H14">
-        <v>0.9401218880330759</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9387266431037631</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1715748126791965</v>
       </c>
       <c r="K14">
-        <v>1.059777900976897</v>
+        <v>1.291557726028657</v>
       </c>
       <c r="L14">
-        <v>3.238389390702366</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.220655221731306</v>
+      </c>
+      <c r="N14">
+        <v>1.445019035757596</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.310323496128603</v>
+        <v>4.576984364585144</v>
       </c>
       <c r="C15">
-        <v>0.5646042351986296</v>
+        <v>1.090285203344763</v>
       </c>
       <c r="D15">
-        <v>0.005675774839758674</v>
+        <v>0.01487697839055357</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.894875580979445</v>
+        <v>3.73362248256305</v>
       </c>
       <c r="G15">
-        <v>0.4613813550915324</v>
+        <v>0.0007727787435029254</v>
       </c>
       <c r="H15">
-        <v>0.9298248825936355</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9289241591598199</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1701916007753113</v>
       </c>
       <c r="K15">
-        <v>1.047295072201649</v>
+        <v>1.275920753237202</v>
       </c>
       <c r="L15">
-        <v>3.193956802092075</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.206359102809856</v>
+      </c>
+      <c r="N15">
+        <v>1.445149531086429</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.015058648200693</v>
+        <v>4.261145005184062</v>
       </c>
       <c r="C16">
-        <v>0.528447621245931</v>
+        <v>1.013267720510328</v>
       </c>
       <c r="D16">
-        <v>0.006362482356074395</v>
+        <v>0.01415340785341357</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.770291826463719</v>
+        <v>3.535539531240801</v>
       </c>
       <c r="G16">
-        <v>0.4294489812564422</v>
+        <v>0.0007791460484959787</v>
       </c>
       <c r="H16">
-        <v>0.8721292465864394</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8742894927543574</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1624006219271479</v>
       </c>
       <c r="K16">
-        <v>0.9763125212559487</v>
+        <v>1.187288533482786</v>
       </c>
       <c r="L16">
-        <v>2.944433802884433</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.125344539125237</v>
+      </c>
+      <c r="N16">
+        <v>1.44704376412605</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.83597542813942</v>
+        <v>4.070240572384932</v>
       </c>
       <c r="C17">
-        <v>0.5064048494367341</v>
+        <v>0.9667429101997129</v>
       </c>
       <c r="D17">
-        <v>0.006801314539494285</v>
+        <v>0.01371514245296268</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.695906086912956</v>
+        <v>3.416992583693997</v>
       </c>
       <c r="G17">
-        <v>0.410406988183226</v>
+        <v>0.0007830678999687765</v>
       </c>
       <c r="H17">
-        <v>0.8378232160947192</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8420496891305049</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1577349888070714</v>
       </c>
       <c r="K17">
-        <v>0.9332165906411092</v>
+        <v>1.133723497925828</v>
       </c>
       <c r="L17">
-        <v>2.795480598339267</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.076400219887006</v>
+      </c>
+      <c r="N17">
+        <v>1.449175534271021</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.733652880576585</v>
+        <v>3.961401909923495</v>
       </c>
       <c r="C18">
-        <v>0.4937724144855054</v>
+        <v>0.9402266101272403</v>
       </c>
       <c r="D18">
-        <v>0.007059565833376524</v>
+        <v>0.01346495195779696</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.653813296287439</v>
+        <v>3.349822886978956</v>
       </c>
       <c r="G18">
-        <v>0.3996395822568672</v>
+        <v>0.0007853304816187734</v>
       </c>
       <c r="H18">
-        <v>0.8184604543007765</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.823939375734966</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1550905905901629</v>
       </c>
       <c r="K18">
-        <v>0.9085782808505485</v>
+        <v>1.103187219213822</v>
       </c>
       <c r="L18">
-        <v>2.711163076965306</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.048504856542628</v>
+      </c>
+      <c r="N18">
+        <v>1.450738015796077</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.699118754015615</v>
+        <v>3.924709097497896</v>
       </c>
       <c r="C19">
-        <v>0.4895027506400424</v>
+        <v>0.9312884808713022</v>
       </c>
       <c r="D19">
-        <v>0.007147956512149278</v>
+        <v>0.01338055033102847</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.639674991497529</v>
+        <v>3.327247890497205</v>
       </c>
       <c r="G19">
-        <v>0.3960242612319149</v>
+        <v>0.0007860978228774952</v>
       </c>
       <c r="H19">
-        <v>0.8119652043304484</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8178787137810986</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1542017230266453</v>
       </c>
       <c r="K19">
-        <v>0.9002603979745061</v>
+        <v>1.092892867259323</v>
       </c>
       <c r="L19">
-        <v>2.682833694617642</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.039102010882239</v>
+      </c>
+      <c r="N19">
+        <v>1.45132300782933</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.854967052990901</v>
+        <v>4.090461028768289</v>
       </c>
       <c r="C20">
-        <v>0.5087464761471665</v>
+        <v>0.9716698698622395</v>
       </c>
       <c r="D20">
-        <v>0.006753982145959014</v>
+        <v>0.01376159732902593</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.703751698770816</v>
+        <v>3.429505364118882</v>
       </c>
       <c r="G20">
-        <v>0.412414540893181</v>
+        <v>0.0007826497277217946</v>
       </c>
       <c r="H20">
-        <v>0.8414362800759676</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8454360629349225</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1582275427679747</v>
       </c>
       <c r="K20">
-        <v>0.9377884278795392</v>
+        <v>1.139396820388598</v>
       </c>
       <c r="L20">
-        <v>2.81119317074328</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.081583451529497</v>
+      </c>
+      <c r="N20">
+        <v>1.44891335868661</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.387252899129066</v>
+        <v>4.659481987945867</v>
       </c>
       <c r="C21">
-        <v>0.5739859315345939</v>
+        <v>1.110412169243091</v>
       </c>
       <c r="D21">
-        <v>0.005504449306456216</v>
+        <v>0.01506568425618227</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.927722997179714</v>
+        <v>3.785747610356879</v>
       </c>
       <c r="G21">
-        <v>0.4698089687253884</v>
+        <v>0.0007711387784508748</v>
       </c>
       <c r="H21">
-        <v>0.9450840240946405</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9434558722294071</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1722406052434522</v>
       </c>
       <c r="K21">
-        <v>1.06577414325308</v>
+        <v>1.299074300299878</v>
       </c>
       <c r="L21">
-        <v>3.25979279506943</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.227527550326002</v>
+      </c>
+      <c r="N21">
+        <v>1.444977523728255</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.742845378359675</v>
+        <v>5.041832388024034</v>
       </c>
       <c r="C22">
-        <v>0.6171386808832722</v>
+        <v>1.203752093780452</v>
       </c>
       <c r="D22">
-        <v>0.004753887646550048</v>
+        <v>0.01593884621985708</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.081584990207375</v>
+        <v>4.029318681661266</v>
       </c>
       <c r="G22">
-        <v>0.509331973463091</v>
+        <v>0.0007636529235645991</v>
       </c>
       <c r="H22">
-        <v>1.016806540376379</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1.012189667892486</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1818078232876772</v>
       </c>
       <c r="K22">
-        <v>1.15110788638016</v>
+        <v>1.406399539495979</v>
       </c>
       <c r="L22">
-        <v>3.568691359964916</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.325671843957949</v>
+      </c>
+      <c r="N22">
+        <v>1.445848195983629</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.552264939700137</v>
+        <v>4.836708869866754</v>
       </c>
       <c r="C23">
-        <v>0.5940546835897464</v>
+        <v>1.15366495160265</v>
       </c>
       <c r="D23">
-        <v>0.005147651366032235</v>
+        <v>0.01547069392822209</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.998710463105795</v>
+        <v>3.898247189578939</v>
       </c>
       <c r="G23">
-        <v>0.4880341338505616</v>
+        <v>0.0007676461028849282</v>
       </c>
       <c r="H23">
-        <v>0.9781252280310468</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9750338941957182</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1766610420444863</v>
       </c>
       <c r="K23">
-        <v>1.105390123146734</v>
+        <v>1.348818319418598</v>
       </c>
       <c r="L23">
-        <v>3.402188259815233</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.273012424837361</v>
+      </c>
+      <c r="N23">
+        <v>1.445044846318225</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.846378979272231</v>
+        <v>4.081316530652714</v>
       </c>
       <c r="C24">
-        <v>0.507687702476062</v>
+        <v>0.9694416757415922</v>
       </c>
       <c r="D24">
-        <v>0.006775362698058451</v>
+        <v>0.01374058959532931</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.70020261655371</v>
+        <v>3.423845287477917</v>
       </c>
       <c r="G24">
-        <v>0.4115063691696719</v>
+        <v>0.0007828387586685896</v>
       </c>
       <c r="H24">
-        <v>0.8398016990530976</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8439037687234077</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1580047415940413</v>
       </c>
       <c r="K24">
-        <v>0.9357210737960031</v>
+        <v>1.136831110306574</v>
       </c>
       <c r="L24">
-        <v>2.804085449451392</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.079239359501145</v>
+      </c>
+      <c r="N24">
+        <v>1.449030843624186</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.110375898544362</v>
+        <v>3.302586773518442</v>
       </c>
       <c r="C25">
-        <v>0.4162364843546413</v>
+        <v>0.7798311878694619</v>
       </c>
       <c r="D25">
-        <v>0.008750131031717956</v>
+        <v>0.0119451218225457</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.404143159850292</v>
+        <v>2.950226847250065</v>
       </c>
       <c r="G25">
-        <v>0.3358900400232301</v>
+        <v>0.0007994979877087263</v>
       </c>
       <c r="H25">
-        <v>0.7044372686315228</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7187026176208775</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1393520372185719</v>
       </c>
       <c r="K25">
-        <v>0.758272025848008</v>
+        <v>0.9183763902827309</v>
       </c>
       <c r="L25">
-        <v>2.209553022896188</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0.8798119011197443</v>
+      </c>
+      <c r="N25">
+        <v>1.466002512613954</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.75183413596767</v>
+        <v>0.9540875083090725</v>
       </c>
       <c r="C2">
-        <v>0.645845635562722</v>
+        <v>0.1709952898110316</v>
       </c>
       <c r="D2">
-        <v>0.01066718662843869</v>
+        <v>0.3752218233479994</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.626665202249256</v>
+        <v>0.7910900381753123</v>
       </c>
       <c r="G2">
-        <v>0.000812105227465084</v>
+        <v>0.0008065605996387475</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2755829880633343</v>
       </c>
       <c r="J2">
-        <v>0.1266127241738886</v>
+        <v>0.4351551613067812</v>
       </c>
       <c r="K2">
-        <v>0.7639042815637112</v>
+        <v>1.071533729156499</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7390606583851564</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.487430323868963</v>
+        <v>0.7274470880765165</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.517503298624916</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.389173441992</v>
+        <v>0.8291689444452288</v>
       </c>
       <c r="C3">
-        <v>0.5576319574124966</v>
+        <v>0.1487858358954952</v>
       </c>
       <c r="D3">
-        <v>0.00982219678502716</v>
+        <v>0.3303408588296008</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.419897035294312</v>
+        <v>0.7512169962133584</v>
       </c>
       <c r="G3">
-        <v>0.0008209075408110541</v>
+        <v>0.0008100779390498863</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2781373468938995</v>
       </c>
       <c r="J3">
-        <v>0.1184858129511284</v>
+        <v>0.3844810482313505</v>
       </c>
       <c r="K3">
-        <v>0.6621885516671924</v>
+        <v>0.9312999468738212</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6465636655344156</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.506704609058289</v>
+        <v>0.7632897024803533</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.485101523783086</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.170712307308918</v>
+        <v>0.7525971861711582</v>
       </c>
       <c r="C4">
-        <v>0.5044836784907147</v>
+        <v>0.1351769931184919</v>
       </c>
       <c r="D4">
-        <v>0.009312087875983366</v>
+        <v>0.3030543119932076</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.298199846909114</v>
+        <v>0.7281268892630095</v>
       </c>
       <c r="G4">
-        <v>0.0008264527339099535</v>
+        <v>0.0008123099518370186</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2802911668062542</v>
       </c>
       <c r="J4">
-        <v>0.1137130360790266</v>
+        <v>0.3538671512542635</v>
       </c>
       <c r="K4">
-        <v>0.6009126176684276</v>
+        <v>0.8453441955757057</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.590936870993751</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.52064882667807</v>
+        <v>0.7862661063660425</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.468280660574749</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.082612292601084</v>
+        <v>0.7214158635836156</v>
       </c>
       <c r="C5">
-        <v>0.4830456540800867</v>
+        <v>0.1296359304975141</v>
       </c>
       <c r="D5">
-        <v>0.009106198313528324</v>
+        <v>0.2919964502694512</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.249807280869433</v>
+        <v>0.7190495088836286</v>
       </c>
       <c r="G5">
-        <v>0.0008287495513736323</v>
+        <v>0.000813238014632808</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2813103990803398</v>
       </c>
       <c r="J5">
-        <v>0.1118183068560725</v>
+        <v>0.3415063381405901</v>
       </c>
       <c r="K5">
-        <v>0.5761999190300955</v>
+        <v>0.8103417963075401</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5685271798525307</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.526830064978853</v>
+        <v>0.7958670378907158</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.462163795775069</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.068035471146857</v>
+        <v>0.7162392910305186</v>
       </c>
       <c r="C6">
-        <v>0.4794982294347392</v>
+        <v>0.1287160560648459</v>
       </c>
       <c r="D6">
-        <v>0.009072124832472994</v>
+        <v>0.2901638418914985</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.241840826794729</v>
+        <v>0.7175617596595032</v>
       </c>
       <c r="G6">
-        <v>0.0008291332264082987</v>
+        <v>0.0008133932448781299</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2814880289546657</v>
       </c>
       <c r="J6">
-        <v>0.1115065998461802</v>
+        <v>0.3394604398983745</v>
       </c>
       <c r="K6">
-        <v>0.5721108991322481</v>
+        <v>0.8045308616936211</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5648207323413104</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.527885711115502</v>
+        <v>0.7974754677865903</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.461191657307523</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.169520585796761</v>
+        <v>0.7521765866182477</v>
       </c>
       <c r="C7">
-        <v>0.5041937096796687</v>
+        <v>0.1351022485868612</v>
       </c>
       <c r="D7">
-        <v>0.009309303397158075</v>
+        <v>0.3029049405025432</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.297542503276915</v>
+        <v>0.7280031473701882</v>
       </c>
       <c r="G7">
-        <v>0.0008264835571066972</v>
+        <v>0.0008123223926738372</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2803043467803441</v>
       </c>
       <c r="J7">
-        <v>0.113687285318278</v>
+        <v>0.3536999993669951</v>
       </c>
       <c r="K7">
-        <v>0.6005783384231762</v>
+        <v>0.84487205409539</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.59063364240982</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.520730208993399</v>
+        <v>0.7863946322236899</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.468195224471188</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.62582906658082</v>
+        <v>0.9109825866251526</v>
       </c>
       <c r="C8">
-        <v>0.6151967765839572</v>
+        <v>0.1633302242483126</v>
       </c>
       <c r="D8">
-        <v>0.01037388885057489</v>
+        <v>0.3596867461811541</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.554202834701385</v>
+        <v>0.7770417458790035</v>
       </c>
       <c r="G8">
-        <v>0.0008151122065583783</v>
+        <v>0.0008077585501671258</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2763387249209579</v>
       </c>
       <c r="J8">
-        <v>0.1237627234584338</v>
+        <v>0.4175719824057609</v>
       </c>
       <c r="K8">
-        <v>0.7285639760993874</v>
+        <v>1.02314283241401</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7069036741567558</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.493618283499998</v>
+        <v>0.7396009725004102</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.505671444920836</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.560875295092444</v>
+        <v>1.223920089313879</v>
       </c>
       <c r="C9">
-        <v>0.8426938509552997</v>
+        <v>0.219021956098814</v>
       </c>
       <c r="D9">
-        <v>0.01254210420302826</v>
+        <v>0.4734929780478865</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.105393002530491</v>
+        <v>0.8851146808819124</v>
       </c>
       <c r="G9">
-        <v>0.0007938399085733345</v>
+        <v>0.0007993683532609599</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2734766536198272</v>
       </c>
       <c r="J9">
-        <v>0.1454641682747067</v>
+        <v>0.5473333441207444</v>
       </c>
       <c r="K9">
-        <v>0.9908261927276811</v>
+        <v>1.374502198999721</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9459119558644673</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.458778320864056</v>
+        <v>0.6557978365781736</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.605230630172144</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.283065166899121</v>
+        <v>1.455519184156429</v>
       </c>
       <c r="C10">
-        <v>1.018611092465335</v>
+        <v>0.2603199438631094</v>
       </c>
       <c r="D10">
-        <v>0.01420368532046723</v>
+        <v>0.5590699491696682</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.549209553414471</v>
+        <v>0.9730523068002128</v>
       </c>
       <c r="G10">
-        <v>0.0007786993889329352</v>
+        <v>0.0007935236502162143</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2747651358200507</v>
       </c>
       <c r="J10">
-        <v>0.1629384995453549</v>
+        <v>0.646222991448056</v>
       </c>
       <c r="K10">
-        <v>1.193439358147515</v>
+        <v>1.634628528961002</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.130965656132105</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.446847507947865</v>
+        <v>0.5994741243668074</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.696743479114275</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.622031793738643</v>
+        <v>1.561427048337833</v>
       </c>
       <c r="C11">
-        <v>1.101274908217306</v>
+        <v>0.2792328194768743</v>
       </c>
       <c r="D11">
-        <v>0.01498003466483055</v>
+        <v>0.5985386163173416</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.762065815427604</v>
+        <v>1.015214565589773</v>
       </c>
       <c r="G11">
-        <v>0.0007718821072375384</v>
+        <v>0.0007909291029248781</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2761812011657589</v>
       </c>
       <c r="J11">
-        <v>0.1713097544089663</v>
+        <v>0.6921748585270251</v>
       </c>
       <c r="K11">
-        <v>1.28856349141202</v>
+        <v>1.753614261175017</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.217917675182505</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.445039398508214</v>
+        <v>0.5750835627636288</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.742950814761826</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.752159848616657</v>
+        <v>1.601626864278671</v>
       </c>
       <c r="C12">
-        <v>1.133027952563225</v>
+        <v>0.2864165573707282</v>
       </c>
       <c r="D12">
-        <v>0.01527754068842668</v>
+        <v>0.6135717236773814</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.844489655174954</v>
+        <v>1.031517842368899</v>
       </c>
       <c r="G12">
-        <v>0.0007693072651073655</v>
+        <v>0.0007899554156413573</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2768451413223367</v>
       </c>
       <c r="J12">
-        <v>0.1745490750737986</v>
+        <v>0.7097317878421734</v>
       </c>
       <c r="K12">
-        <v>1.32508641277532</v>
+        <v>1.798783951553247</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.2513115528334</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.44493910312616</v>
+        <v>0.5660330456985818</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.761159136119858</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.724051110263645</v>
+        <v>1.59296464077417</v>
       </c>
       <c r="C13">
-        <v>1.126168114071675</v>
+        <v>0.2848683774219012</v>
       </c>
       <c r="D13">
-        <v>0.01521330057142833</v>
+        <v>0.6103300367853706</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.826653022731136</v>
+        <v>1.027991188093154</v>
       </c>
       <c r="G13">
-        <v>0.0007698615636463213</v>
+        <v>0.0007901647317370533</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2766963308747634</v>
       </c>
       <c r="J13">
-        <v>0.1738481970260963</v>
+        <v>0.7059433688691144</v>
       </c>
       <c r="K13">
-        <v>1.317196907383405</v>
+        <v>1.789050543273078</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.244097614813228</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.444933594647068</v>
+        <v>0.567973836363608</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.757205171274194</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.632700391256151</v>
+        <v>1.564732319096123</v>
       </c>
       <c r="C14">
-        <v>1.103877789107685</v>
+        <v>0.2798233699438128</v>
       </c>
       <c r="D14">
-        <v>0.0150044364445634</v>
+        <v>0.5997735942213183</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.768808885485328</v>
+        <v>1.016548924342146</v>
       </c>
       <c r="G14">
-        <v>0.0007716701598635374</v>
+        <v>0.0007908488230279585</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2762332145569601</v>
       </c>
       <c r="J14">
-        <v>0.1715748126791965</v>
+        <v>0.6936160503242093</v>
       </c>
       <c r="K14">
-        <v>1.291557726028657</v>
+        <v>1.757328035750362</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.220655221731306</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.445019035757596</v>
+        <v>0.5743351991595134</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.744434269870339</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.576984364585144</v>
+        <v>1.547452029701788</v>
       </c>
       <c r="C15">
-        <v>1.090285203344763</v>
+        <v>0.2767361164067665</v>
       </c>
       <c r="D15">
-        <v>0.01487697839055357</v>
+        <v>0.593319119529184</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.73362248256305</v>
+        <v>1.009584969808543</v>
       </c>
       <c r="G15">
-        <v>0.0007727787435029254</v>
+        <v>0.0007912689830835637</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.275966431535867</v>
       </c>
       <c r="J15">
-        <v>0.1701916007753113</v>
+        <v>0.6860860471818739</v>
       </c>
       <c r="K15">
-        <v>1.275920753237202</v>
+        <v>1.73791229094806</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.206359102809856</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.445149531086429</v>
+        <v>0.578256160502125</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.736705881601694</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.261145005184062</v>
+        <v>1.448610259194652</v>
       </c>
       <c r="C16">
-        <v>1.013267720510328</v>
+        <v>0.2590867916868831</v>
       </c>
       <c r="D16">
-        <v>0.01415340785341357</v>
+        <v>0.5565022382378686</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.535539531240801</v>
+        <v>0.9703426040480565</v>
       </c>
       <c r="G16">
-        <v>0.0007791460484959787</v>
+        <v>0.0007936944667873687</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2746899952108777</v>
       </c>
       <c r="J16">
-        <v>0.1624006219271479</v>
+        <v>0.6432407994679181</v>
       </c>
       <c r="K16">
-        <v>1.187288533482786</v>
+        <v>1.626867219108249</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.125344539125237</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.44704376412605</v>
+        <v>0.6010936047686481</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.693820228026084</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.070240572384932</v>
+        <v>1.388126082400078</v>
       </c>
       <c r="C17">
-        <v>0.9667429101997129</v>
+        <v>0.248294364670727</v>
       </c>
       <c r="D17">
-        <v>0.01371514245296268</v>
+        <v>0.5340610333074665</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.416992583693997</v>
+        <v>0.9468401982294949</v>
       </c>
       <c r="G17">
-        <v>0.0007830678999687765</v>
+        <v>0.0007951985804655873</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2741252846625741</v>
       </c>
       <c r="J17">
-        <v>0.1577349888070714</v>
+        <v>0.617215852626444</v>
       </c>
       <c r="K17">
-        <v>1.133723497925828</v>
+        <v>1.558924620789099</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.076400219887006</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.449175534271021</v>
+        <v>0.6154249575584352</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.668719840090461</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.961401909923495</v>
+        <v>1.353388179448871</v>
       </c>
       <c r="C18">
-        <v>0.9402266101272403</v>
+        <v>0.2420984878520329</v>
       </c>
       <c r="D18">
-        <v>0.01346495195779696</v>
+        <v>0.5212035882529165</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.349822886978956</v>
+        <v>0.933523733391695</v>
       </c>
       <c r="G18">
-        <v>0.0007853304816187734</v>
+        <v>0.0007960697801950484</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2738780620224937</v>
       </c>
       <c r="J18">
-        <v>0.1550905905901629</v>
+        <v>0.6023368718252726</v>
       </c>
       <c r="K18">
-        <v>1.103187219213822</v>
+        <v>1.519906108447572</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.048504856542628</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.450738015796077</v>
+        <v>0.6237833289875212</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.654710292981235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.924709097497896</v>
+        <v>1.341634830331458</v>
       </c>
       <c r="C19">
-        <v>0.9312884808713022</v>
+        <v>0.2400025621477084</v>
       </c>
       <c r="D19">
-        <v>0.01338055033102847</v>
+        <v>0.5168586079631154</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.327247890497205</v>
+        <v>0.929048825666996</v>
       </c>
       <c r="G19">
-        <v>0.0007860978228774952</v>
+        <v>0.0007963658090761042</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2738074359634481</v>
       </c>
       <c r="J19">
-        <v>0.1542017230266453</v>
+        <v>0.5973140445848912</v>
       </c>
       <c r="K19">
-        <v>1.092892867259323</v>
+        <v>1.506704921846676</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.039102010882239</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.45132300782933</v>
+        <v>0.6266328899174329</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.650038793551801</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.090461028768289</v>
+        <v>1.394559340514576</v>
       </c>
       <c r="C20">
-        <v>0.9716698698622395</v>
+        <v>0.2494420062598977</v>
       </c>
       <c r="D20">
-        <v>0.01376159732902593</v>
+        <v>0.5364446807467687</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.429505364118882</v>
+        <v>0.9493210264467251</v>
       </c>
       <c r="G20">
-        <v>0.0007826497277217946</v>
+        <v>0.0007950378394343538</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2741773106091223</v>
       </c>
       <c r="J20">
-        <v>0.1582275427679747</v>
+        <v>0.6199768313863245</v>
       </c>
       <c r="K20">
-        <v>1.139396820388598</v>
+        <v>1.566150858844367</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.081583451529497</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.44891335868661</v>
+        <v>0.613887361222881</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.671347203601869</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.659481987945867</v>
+        <v>1.573022134974934</v>
       </c>
       <c r="C21">
-        <v>1.110412169243091</v>
+        <v>0.2813045872182727</v>
       </c>
       <c r="D21">
-        <v>0.01506568425618227</v>
+        <v>0.6028718310083434</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.785747610356879</v>
+        <v>1.019900415451332</v>
       </c>
       <c r="G21">
-        <v>0.0007711387784508748</v>
+        <v>0.0007906476532141292</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2763657076428778</v>
       </c>
       <c r="J21">
-        <v>0.1722406052434522</v>
+        <v>0.6972325084077653</v>
       </c>
       <c r="K21">
-        <v>1.299074300299878</v>
+        <v>1.766642501067594</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.227527550326002</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.444977523728255</v>
+        <v>0.5724616026811091</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.74816567222382</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.041832388024034</v>
+        <v>1.690218471906263</v>
       </c>
       <c r="C22">
-        <v>1.203752093780452</v>
+        <v>0.3022578734537831</v>
       </c>
       <c r="D22">
-        <v>0.01593884621985708</v>
+        <v>0.6467989484959844</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.029318681661266</v>
+        <v>1.068008296946346</v>
       </c>
       <c r="G22">
-        <v>0.0007636529235645991</v>
+        <v>0.0007878295556597573</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2785446223336763</v>
       </c>
       <c r="J22">
-        <v>0.1818078232876772</v>
+        <v>0.7486413961105569</v>
       </c>
       <c r="K22">
-        <v>1.406399539495979</v>
+        <v>1.898339996313467</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.325671843957949</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.445848195983629</v>
+        <v>0.5464740425216341</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.802539912915137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.836708869866754</v>
+        <v>1.6276118997651</v>
       </c>
       <c r="C23">
-        <v>1.15366495160265</v>
+        <v>0.2910615845369193</v>
       </c>
       <c r="D23">
-        <v>0.01547069392822209</v>
+        <v>0.6233038988001169</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.898247189578939</v>
+        <v>1.042141643740848</v>
       </c>
       <c r="G23">
-        <v>0.0007676461028849282</v>
+        <v>0.0007893290955122618</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2773102775435667</v>
       </c>
       <c r="J23">
-        <v>0.1766610420444863</v>
+        <v>0.7211135760015708</v>
       </c>
       <c r="K23">
-        <v>1.348818319418598</v>
+        <v>1.827983274518942</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.273012424837361</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.445044846318225</v>
+        <v>0.5602416826895809</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.77311963687103</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.081316530652714</v>
+        <v>1.391650755856205</v>
       </c>
       <c r="C24">
-        <v>0.9694416757415922</v>
+        <v>0.2489231302590582</v>
       </c>
       <c r="D24">
-        <v>0.01374058959532931</v>
+        <v>0.5353668964667975</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.423845287477917</v>
+        <v>0.9481988374509172</v>
       </c>
       <c r="G24">
-        <v>0.0007828387586685896</v>
+        <v>0.0007951104902418593</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2741535491056872</v>
       </c>
       <c r="J24">
-        <v>0.1580047415940413</v>
+        <v>0.6187283352951312</v>
       </c>
       <c r="K24">
-        <v>1.136831110306574</v>
+        <v>1.562883745333863</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.079239359501145</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.449030843624186</v>
+        <v>0.61458213824349</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.670158065151327</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.302586773518442</v>
+        <v>1.139024356436806</v>
       </c>
       <c r="C25">
-        <v>0.7798311878694619</v>
+        <v>0.2039024153376232</v>
       </c>
       <c r="D25">
-        <v>0.0119451218225457</v>
+        <v>0.4423960578887716</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.950226847250065</v>
+        <v>0.8544762775918713</v>
       </c>
       <c r="G25">
-        <v>0.0007994979877087263</v>
+        <v>0.0008015803792053382</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2736854431795841</v>
       </c>
       <c r="J25">
-        <v>0.1393520372185719</v>
+        <v>0.5116668689718011</v>
       </c>
       <c r="K25">
-        <v>0.9183763902827309</v>
+        <v>1.279171051313114</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8798119011197443</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.466002512613954</v>
+        <v>0.6775775278112146</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.57526033787596</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9540875083090725</v>
+        <v>0.3716865831074188</v>
       </c>
       <c r="C2">
-        <v>0.1709952898110316</v>
+        <v>0.05611706257801075</v>
       </c>
       <c r="D2">
-        <v>0.3752218233479994</v>
+        <v>0.3069392310650585</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7910900381753123</v>
+        <v>1.382777874846866</v>
       </c>
       <c r="G2">
-        <v>0.0008065605996387475</v>
+        <v>0.002452010522008441</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2755829880633343</v>
+        <v>0.6277365463388946</v>
       </c>
       <c r="J2">
-        <v>0.4351551613067812</v>
+        <v>0.349601523791975</v>
       </c>
       <c r="K2">
-        <v>1.071533729156499</v>
+        <v>0.3997780441873999</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7274470880765165</v>
+        <v>1.488755955518869</v>
       </c>
       <c r="O2">
-        <v>1.517503298624916</v>
+        <v>3.072261719399762</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8291689444452288</v>
+        <v>0.3350010994907393</v>
       </c>
       <c r="C3">
-        <v>0.1487858358954952</v>
+        <v>0.04955965120919359</v>
       </c>
       <c r="D3">
-        <v>0.3303408588296008</v>
+        <v>0.2961529380605583</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7512169962133584</v>
+        <v>1.382521390128545</v>
       </c>
       <c r="G3">
-        <v>0.0008100779390498863</v>
+        <v>0.002454346493860032</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2781373468938995</v>
+        <v>0.6330069154511762</v>
       </c>
       <c r="J3">
-        <v>0.3844810482313505</v>
+        <v>0.3382217178279774</v>
       </c>
       <c r="K3">
-        <v>0.9312999468738212</v>
+        <v>0.3585184591513553</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7632897024803533</v>
+        <v>1.504171835118195</v>
       </c>
       <c r="O3">
-        <v>1.485101523783086</v>
+        <v>3.086941397435169</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7525971861711582</v>
+        <v>0.3125228076359008</v>
       </c>
       <c r="C4">
-        <v>0.1351769931184919</v>
+        <v>0.04553123094453326</v>
       </c>
       <c r="D4">
-        <v>0.3030543119932076</v>
+        <v>0.2896702114335739</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7281268892630095</v>
+        <v>1.383101361320662</v>
       </c>
       <c r="G4">
-        <v>0.0008123099518370186</v>
+        <v>0.002455857848092324</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2802911668062542</v>
+        <v>0.6365569477843316</v>
       </c>
       <c r="J4">
-        <v>0.3538671512542635</v>
+        <v>0.3314377112814242</v>
       </c>
       <c r="K4">
-        <v>0.8453441955757057</v>
+        <v>0.33322143202912</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7862661063660425</v>
+        <v>1.514132284327914</v>
       </c>
       <c r="O4">
-        <v>1.468280660574749</v>
+        <v>3.097574637028231</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7214158635836156</v>
+        <v>0.3033750314684482</v>
       </c>
       <c r="C5">
-        <v>0.1296359304975141</v>
+        <v>0.04388914327655868</v>
       </c>
       <c r="D5">
-        <v>0.2919964502694512</v>
+        <v>0.2870638096966616</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7190495088836286</v>
+        <v>1.383523216359123</v>
       </c>
       <c r="G5">
-        <v>0.000813238014632808</v>
+        <v>0.002456493171498911</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2813103990803398</v>
+        <v>0.6380825670879098</v>
       </c>
       <c r="J5">
-        <v>0.3415063381405901</v>
+        <v>0.3287242745443706</v>
       </c>
       <c r="K5">
-        <v>0.8103417963075401</v>
+        <v>0.3229224487375859</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7958670378907158</v>
+        <v>1.518315740423141</v>
       </c>
       <c r="O5">
-        <v>1.462163795775069</v>
+        <v>3.102315106829764</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7162392910305186</v>
+        <v>0.3018568100973482</v>
       </c>
       <c r="C6">
-        <v>0.1287160560648459</v>
+        <v>0.04361644918343188</v>
       </c>
       <c r="D6">
-        <v>0.2901638418914985</v>
+        <v>0.2866331583527142</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7175617596595032</v>
+        <v>1.383604471717767</v>
       </c>
       <c r="G6">
-        <v>0.0008133932448781299</v>
+        <v>0.002456599841832462</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2814880289546657</v>
+        <v>0.6383406633488526</v>
       </c>
       <c r="J6">
-        <v>0.3394604398983745</v>
+        <v>0.3282767966717302</v>
       </c>
       <c r="K6">
-        <v>0.8045308616936211</v>
+        <v>0.3212129168984745</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7974754677865903</v>
+        <v>1.519017919514104</v>
       </c>
       <c r="O6">
-        <v>1.461191657307523</v>
+        <v>3.103126860863668</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7521765866182477</v>
+        <v>0.3123993869457991</v>
       </c>
       <c r="C7">
-        <v>0.1351022485868612</v>
+        <v>0.04550908700790046</v>
       </c>
       <c r="D7">
-        <v>0.3029049405025432</v>
+        <v>0.2896349172330162</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7280031473701882</v>
+        <v>1.383106299377921</v>
       </c>
       <c r="G7">
-        <v>0.0008123223926738372</v>
+        <v>0.002455866337605897</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2803043467803441</v>
+        <v>0.6365772031541788</v>
       </c>
       <c r="J7">
-        <v>0.3536999993669951</v>
+        <v>0.331400910024982</v>
       </c>
       <c r="K7">
-        <v>0.84487205409539</v>
+        <v>0.333082496054999</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7863946322236899</v>
+        <v>1.514188199800891</v>
       </c>
       <c r="O7">
-        <v>1.468195224471188</v>
+        <v>3.097636919351785</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9109825866251526</v>
+        <v>0.359028048957498</v>
       </c>
       <c r="C8">
-        <v>0.1633302242483126</v>
+        <v>0.05385654908648974</v>
       </c>
       <c r="D8">
-        <v>0.3596867461811541</v>
+        <v>0.3031911149150375</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7770417458790035</v>
+        <v>1.382536420414247</v>
       </c>
       <c r="G8">
-        <v>0.0008077585501671258</v>
+        <v>0.002452800006159315</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2763387249209579</v>
+        <v>0.6294885938842611</v>
       </c>
       <c r="J8">
-        <v>0.4175719824057609</v>
+        <v>0.3456355766519579</v>
       </c>
       <c r="K8">
-        <v>1.02314283241401</v>
+        <v>0.3855444913570807</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7396009725004102</v>
+        <v>1.493968613805382</v>
       </c>
       <c r="O8">
-        <v>1.505671444920836</v>
+        <v>3.076987073727523</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.223920089313879</v>
+        <v>0.4508176999664215</v>
       </c>
       <c r="C9">
-        <v>0.219021956098814</v>
+        <v>0.07020682182916005</v>
       </c>
       <c r="D9">
-        <v>0.4734929780478865</v>
+        <v>0.330882221567748</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8851146808819124</v>
+        <v>1.387268866178218</v>
       </c>
       <c r="G9">
-        <v>0.0007993683532609599</v>
+        <v>0.002447395750386505</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2734766536198272</v>
+        <v>0.6180797620536467</v>
       </c>
       <c r="J9">
-        <v>0.5473333441207444</v>
+        <v>0.3751644619220258</v>
       </c>
       <c r="K9">
-        <v>1.374502198999721</v>
+        <v>0.4886918730699392</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6557978365781736</v>
+        <v>1.458244915103419</v>
       </c>
       <c r="O9">
-        <v>1.605230630172144</v>
+        <v>3.04934732537501</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.455519184156429</v>
+        <v>0.5184494680599414</v>
       </c>
       <c r="C10">
-        <v>0.2603199438631094</v>
+        <v>0.08220613077361349</v>
       </c>
       <c r="D10">
-        <v>0.5590699491696682</v>
+        <v>0.3518987739395811</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9730523068002128</v>
+        <v>1.39431294574328</v>
       </c>
       <c r="G10">
-        <v>0.0007935236502162143</v>
+        <v>0.002443792730440398</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2747651358200507</v>
+        <v>0.6112176000598595</v>
       </c>
       <c r="J10">
-        <v>0.646222991448056</v>
+        <v>0.3978493844656725</v>
       </c>
       <c r="K10">
-        <v>1.634628528961002</v>
+        <v>0.5646188681002968</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5994741243668074</v>
+        <v>1.434390394496843</v>
       </c>
       <c r="O10">
-        <v>1.696743479114275</v>
+        <v>3.036882433331755</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.561427048337833</v>
+        <v>0.5492551599248543</v>
       </c>
       <c r="C11">
-        <v>0.2792328194768743</v>
+        <v>0.0876617824243624</v>
       </c>
       <c r="D11">
-        <v>0.5985386163173416</v>
+        <v>0.3616050986888695</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.015214565589773</v>
+        <v>1.398292423742674</v>
       </c>
       <c r="G11">
-        <v>0.0007909291029248781</v>
+        <v>0.00244223264122174</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2761812011657589</v>
+        <v>0.6084260499317971</v>
       </c>
       <c r="J11">
-        <v>0.6921748585270251</v>
+        <v>0.4083856902826142</v>
       </c>
       <c r="K11">
-        <v>1.753614261175017</v>
+        <v>0.5991876867117014</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5750835627636288</v>
+        <v>1.424057227670025</v>
       </c>
       <c r="O11">
-        <v>1.742950814761826</v>
+        <v>3.03291610736224</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.601626864278671</v>
+        <v>0.5609256989036737</v>
       </c>
       <c r="C12">
-        <v>0.2864165573707282</v>
+        <v>0.08972722928859866</v>
       </c>
       <c r="D12">
-        <v>0.6135717236773814</v>
+        <v>0.3653014943049584</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.031517842368899</v>
+        <v>1.399910785216704</v>
       </c>
       <c r="G12">
-        <v>0.0007899554156413573</v>
+        <v>0.002441653168974131</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2768451413223367</v>
+        <v>0.6074164454708253</v>
       </c>
       <c r="J12">
-        <v>0.7097317878421734</v>
+        <v>0.4124067426155733</v>
       </c>
       <c r="K12">
-        <v>1.798783951553247</v>
+        <v>0.612281717026093</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5660330456985818</v>
+        <v>1.420218866854992</v>
       </c>
       <c r="O12">
-        <v>1.761159136119858</v>
+        <v>3.031659272876254</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.59296464077417</v>
+        <v>0.5584120227841254</v>
       </c>
       <c r="C13">
-        <v>0.2848683774219012</v>
+        <v>0.0892824213201493</v>
       </c>
       <c r="D13">
-        <v>0.6103300367853706</v>
+        <v>0.3645044856365587</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.027991188093154</v>
+        <v>1.399557287307147</v>
       </c>
       <c r="G13">
-        <v>0.0007901647317370533</v>
+        <v>0.002441777467080484</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2766963308747634</v>
+        <v>0.6076317690301281</v>
       </c>
       <c r="J13">
-        <v>0.7059433688691144</v>
+        <v>0.411539350179126</v>
       </c>
       <c r="K13">
-        <v>1.789050543273078</v>
+        <v>0.6094615347269041</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.567973836363608</v>
+        <v>1.421042208612402</v>
       </c>
       <c r="O13">
-        <v>1.757205171274194</v>
+        <v>3.031919051117285</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.564732319096123</v>
+        <v>0.5502152036388281</v>
       </c>
       <c r="C14">
-        <v>0.2798233699438128</v>
+        <v>0.08783171822301483</v>
       </c>
       <c r="D14">
-        <v>0.5997735942213183</v>
+        <v>0.3619087869176667</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.016548924342146</v>
+        <v>1.398423334518966</v>
       </c>
       <c r="G14">
-        <v>0.0007908488230279585</v>
+        <v>0.002442184741533182</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2762332145569601</v>
+        <v>0.6083420371247037</v>
       </c>
       <c r="J14">
-        <v>0.6936160503242093</v>
+        <v>0.4087158797287032</v>
       </c>
       <c r="K14">
-        <v>1.757328035750362</v>
+        <v>0.6002648725875304</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5743351991595134</v>
+        <v>1.423739948357541</v>
       </c>
       <c r="O14">
-        <v>1.744434269870339</v>
+        <v>3.032807793595936</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.547452029701788</v>
+        <v>0.5451950602286502</v>
       </c>
       <c r="C15">
-        <v>0.2767361164067665</v>
+        <v>0.08694305468304719</v>
       </c>
       <c r="D15">
-        <v>0.593319119529184</v>
+        <v>0.360321553761338</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.009584969808543</v>
+        <v>1.397743264681068</v>
       </c>
       <c r="G15">
-        <v>0.0007912689830835637</v>
+        <v>0.002442435678833632</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.275966431535867</v>
+        <v>0.6087832829720803</v>
       </c>
       <c r="J15">
-        <v>0.6860860471818739</v>
+        <v>0.4069904834507554</v>
       </c>
       <c r="K15">
-        <v>1.73791229094806</v>
+        <v>0.5946320973580725</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.578256160502125</v>
+        <v>1.425402106383856</v>
       </c>
       <c r="O15">
-        <v>1.736705881601694</v>
+        <v>3.033384099527808</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.448610259194652</v>
+        <v>0.5164369894879712</v>
       </c>
       <c r="C16">
-        <v>0.2590867916868831</v>
+        <v>0.08184952655875577</v>
       </c>
       <c r="D16">
-        <v>0.5565022382378686</v>
+        <v>0.3512673642169659</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9703426040480565</v>
+        <v>1.394068471102571</v>
       </c>
       <c r="G16">
-        <v>0.0007936944667873687</v>
+        <v>0.002443896270069476</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2746899952108777</v>
+        <v>0.6114066790450998</v>
       </c>
       <c r="J16">
-        <v>0.6432407994679181</v>
+        <v>0.397165175406812</v>
       </c>
       <c r="K16">
-        <v>1.626867219108249</v>
+        <v>0.5623602486084849</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6010936047686481</v>
+        <v>1.435076125930202</v>
       </c>
       <c r="O16">
-        <v>1.693820228026084</v>
+        <v>3.037175939053185</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.388126082400078</v>
+        <v>0.4988045678914261</v>
       </c>
       <c r="C17">
-        <v>0.248294364670727</v>
+        <v>0.07872401823780706</v>
       </c>
       <c r="D17">
-        <v>0.5340610333074665</v>
+        <v>0.3457501506749736</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9468401982294949</v>
+        <v>1.392012597020781</v>
       </c>
       <c r="G17">
-        <v>0.0007951985804655873</v>
+        <v>0.002444812477321639</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2741252846625741</v>
+        <v>0.6131006104694556</v>
       </c>
       <c r="J17">
-        <v>0.617215852626444</v>
+        <v>0.3911932029319871</v>
       </c>
       <c r="K17">
-        <v>1.558924620789099</v>
+        <v>0.5425695526484446</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6154249575584352</v>
+        <v>1.441143621812333</v>
       </c>
       <c r="O17">
-        <v>1.668719840090461</v>
+        <v>3.039938614356373</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.353388179448871</v>
+        <v>0.4886666349968891</v>
       </c>
       <c r="C18">
-        <v>0.2420984878520329</v>
+        <v>0.07692604052074614</v>
       </c>
       <c r="D18">
-        <v>0.5212035882529165</v>
+        <v>0.3425905263914615</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.933523733391695</v>
+        <v>1.390903070115598</v>
       </c>
       <c r="G18">
-        <v>0.0007960697801950484</v>
+        <v>0.002445346889044945</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2738780620224937</v>
+        <v>0.6141059820991366</v>
       </c>
       <c r="J18">
-        <v>0.6023368718252726</v>
+        <v>0.3877786903817224</v>
       </c>
       <c r="K18">
-        <v>1.519906108447572</v>
+        <v>0.5311892587875775</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6237833289875212</v>
+        <v>1.444682274010091</v>
       </c>
       <c r="O18">
-        <v>1.654710292981235</v>
+        <v>3.041688016666825</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.341634830331458</v>
+        <v>0.4852347711774314</v>
       </c>
       <c r="C19">
-        <v>0.2400025621477084</v>
+        <v>0.07631723237940946</v>
       </c>
       <c r="D19">
-        <v>0.5168586079631154</v>
+        <v>0.3415230945697658</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.929048825666996</v>
+        <v>1.390539935030759</v>
       </c>
       <c r="G19">
-        <v>0.0007963658090761042</v>
+        <v>0.002445529110037445</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2738074359634481</v>
+        <v>0.6144517185593656</v>
       </c>
       <c r="J19">
-        <v>0.5973140445848912</v>
+        <v>0.3866261000830775</v>
       </c>
       <c r="K19">
-        <v>1.506704921846676</v>
+        <v>0.5273365855885572</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6266328899174329</v>
+        <v>1.445888779126705</v>
       </c>
       <c r="O19">
-        <v>1.650038793551801</v>
+        <v>3.042307877645982</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.394559340514576</v>
+        <v>0.5006811835540361</v>
       </c>
       <c r="C20">
-        <v>0.2494420062598977</v>
+        <v>0.07905676220522651</v>
       </c>
       <c r="D20">
-        <v>0.5364446807467687</v>
+        <v>0.3463360474029571</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9493210264467251</v>
+        <v>1.392223897769469</v>
       </c>
       <c r="G20">
-        <v>0.0007950378394343538</v>
+        <v>0.002444714176479448</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2741773106091223</v>
+        <v>0.6129170730366376</v>
       </c>
       <c r="J20">
-        <v>0.6199768313863245</v>
+        <v>0.3918268174123938</v>
       </c>
       <c r="K20">
-        <v>1.566150858844367</v>
+        <v>0.5446760217722897</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.613887361222881</v>
+        <v>1.440492676725695</v>
       </c>
       <c r="O20">
-        <v>1.671347203601869</v>
+        <v>3.039627922987137</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.573022134974934</v>
+        <v>0.5526226747899159</v>
       </c>
       <c r="C21">
-        <v>0.2813045872182727</v>
+        <v>0.08825783877432514</v>
       </c>
       <c r="D21">
-        <v>0.6028718310083434</v>
+        <v>0.3626706426188377</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.019900415451332</v>
+        <v>1.398753380348353</v>
       </c>
       <c r="G21">
-        <v>0.0007906476532141292</v>
+        <v>0.002442064808886568</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2763657076428778</v>
+        <v>0.6081321249310463</v>
       </c>
       <c r="J21">
-        <v>0.6972325084077653</v>
+        <v>0.4095443551494924</v>
       </c>
       <c r="K21">
-        <v>1.766642501067594</v>
+        <v>0.6029660634040397</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5724616026811091</v>
+        <v>1.422945532217787</v>
       </c>
       <c r="O21">
-        <v>1.74816567222382</v>
+        <v>3.032540094977236</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.690218471906263</v>
+        <v>0.5865988386129857</v>
       </c>
       <c r="C22">
-        <v>0.3022578734537831</v>
+        <v>0.09426838377558511</v>
       </c>
       <c r="D22">
-        <v>0.6467989484959844</v>
+        <v>0.3734675391591225</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.068008296946346</v>
+        <v>1.40367019515206</v>
       </c>
       <c r="G22">
-        <v>0.0007878295556597573</v>
+        <v>0.002440399134305918</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2785446223336763</v>
+        <v>0.6052817357110989</v>
       </c>
       <c r="J22">
-        <v>0.7486413961105569</v>
+        <v>0.4213055436175495</v>
       </c>
       <c r="K22">
-        <v>1.898339996313467</v>
+        <v>0.6410824821697076</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5464740425216341</v>
+        <v>1.411912220761179</v>
       </c>
       <c r="O22">
-        <v>1.802539912915137</v>
+        <v>3.02933662040121</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.6276118997651</v>
+        <v>0.5684626327048363</v>
       </c>
       <c r="C23">
-        <v>0.2910615845369193</v>
+        <v>0.09106073166469741</v>
       </c>
       <c r="D23">
-        <v>0.6233038988001169</v>
+        <v>0.3676939813478555</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.042141643740848</v>
+        <v>1.400986589078528</v>
       </c>
       <c r="G23">
-        <v>0.0007893290955122618</v>
+        <v>0.002441282128883523</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2773102775435667</v>
+        <v>0.606777700378391</v>
       </c>
       <c r="J23">
-        <v>0.7211135760015708</v>
+        <v>0.4150117446793899</v>
       </c>
       <c r="K23">
-        <v>1.827983274518942</v>
+        <v>0.6207373661922873</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5602416826895809</v>
+        <v>1.417761110867501</v>
       </c>
       <c r="O23">
-        <v>1.77311963687103</v>
+        <v>3.030915606674824</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.391650755856205</v>
+        <v>0.4998327681174999</v>
       </c>
       <c r="C24">
-        <v>0.2489231302590582</v>
+        <v>0.07890633202120512</v>
       </c>
       <c r="D24">
-        <v>0.5353668964667975</v>
+        <v>0.3460711251838404</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9481988374509172</v>
+        <v>1.39212814310558</v>
       </c>
       <c r="G24">
-        <v>0.0007951104902418593</v>
+        <v>0.002444758594476241</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2741535491056872</v>
+        <v>0.6129999521663798</v>
       </c>
       <c r="J24">
-        <v>0.6187283352951312</v>
+        <v>0.3915403015808891</v>
       </c>
       <c r="K24">
-        <v>1.562883745333863</v>
+        <v>0.5437236943818107</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.61458213824349</v>
+        <v>1.440786812106552</v>
       </c>
       <c r="O24">
-        <v>1.670158065151327</v>
+        <v>3.039767884730168</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.139024356436806</v>
+        <v>0.4259506660144154</v>
       </c>
       <c r="C25">
-        <v>0.2039024153376232</v>
+        <v>0.06578584816097077</v>
       </c>
       <c r="D25">
-        <v>0.4423960578887716</v>
+        <v>0.323272815931773</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8544762775918713</v>
+        <v>1.38536224567622</v>
       </c>
       <c r="G25">
-        <v>0.0008015803792053382</v>
+        <v>0.002448792947562146</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2736854431795841</v>
+        <v>0.62089929841542</v>
       </c>
       <c r="J25">
-        <v>0.5116668689718011</v>
+        <v>0.3670026579614643</v>
       </c>
       <c r="K25">
-        <v>1.279171051313114</v>
+        <v>0.4607609531287267</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6775775278112146</v>
+        <v>1.467488967886565</v>
       </c>
       <c r="O25">
-        <v>1.57526033787596</v>
+        <v>3.055447870799782</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3716865831074188</v>
+        <v>0.9540875083089304</v>
       </c>
       <c r="C2">
-        <v>0.05611706257801075</v>
+        <v>0.1709952898109748</v>
       </c>
       <c r="D2">
-        <v>0.3069392310650585</v>
+        <v>0.3752218233480278</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.382777874846866</v>
+        <v>0.7910900381753052</v>
       </c>
       <c r="G2">
-        <v>0.002452010522008441</v>
+        <v>0.0008065605995785943</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6277365463388946</v>
+        <v>0.2755829880633343</v>
       </c>
       <c r="J2">
-        <v>0.349601523791975</v>
+        <v>0.4351551613067812</v>
       </c>
       <c r="K2">
-        <v>0.3997780441873999</v>
+        <v>1.071533729156414</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.488755955518869</v>
+        <v>0.7274470880765556</v>
       </c>
       <c r="O2">
-        <v>3.072261719399762</v>
+        <v>1.517503298624916</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3350010994907393</v>
+        <v>0.8291689444453993</v>
       </c>
       <c r="C3">
-        <v>0.04955965120919359</v>
+        <v>0.1487858358955805</v>
       </c>
       <c r="D3">
-        <v>0.2961529380605583</v>
+        <v>0.3303408588297287</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.382521390128545</v>
+        <v>0.7512169962133441</v>
       </c>
       <c r="G3">
-        <v>0.002454346493860032</v>
+        <v>0.000810077939109758</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6330069154511762</v>
+        <v>0.278137346893903</v>
       </c>
       <c r="J3">
-        <v>0.3382217178279774</v>
+        <v>0.3844810482314216</v>
       </c>
       <c r="K3">
-        <v>0.3585184591513553</v>
+        <v>0.9312999468738781</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.504171835118195</v>
+        <v>0.7632897024803498</v>
       </c>
       <c r="O3">
-        <v>3.086941397435169</v>
+        <v>1.485101523783129</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3125228076359008</v>
+        <v>0.7525971861711298</v>
       </c>
       <c r="C4">
-        <v>0.04553123094453326</v>
+        <v>0.1351769931187192</v>
       </c>
       <c r="D4">
-        <v>0.2896702114335739</v>
+        <v>0.3030543119932503</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.383101361320662</v>
+        <v>0.7281268892630166</v>
       </c>
       <c r="G4">
-        <v>0.002455857848092324</v>
+        <v>0.0008123099518361304</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6365569477843316</v>
+        <v>0.2802911668062684</v>
       </c>
       <c r="J4">
-        <v>0.3314377112814242</v>
+        <v>0.3538671512542493</v>
       </c>
       <c r="K4">
-        <v>0.33322143202912</v>
+        <v>0.8453441955757057</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.514132284327914</v>
+        <v>0.7862661063660337</v>
       </c>
       <c r="O4">
-        <v>3.097574637028231</v>
+        <v>1.468280660574734</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3033750314684482</v>
+        <v>0.7214158635837293</v>
       </c>
       <c r="C5">
-        <v>0.04388914327655868</v>
+        <v>0.1296359304975141</v>
       </c>
       <c r="D5">
-        <v>0.2870638096966616</v>
+        <v>0.2919964502695507</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.383523216359123</v>
+        <v>0.7190495088836357</v>
       </c>
       <c r="G5">
-        <v>0.002456493171498911</v>
+        <v>0.000813238014692086</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6380825670879098</v>
+        <v>0.2813103990803505</v>
       </c>
       <c r="J5">
-        <v>0.3287242745443706</v>
+        <v>0.3415063381407464</v>
       </c>
       <c r="K5">
-        <v>0.3229224487375859</v>
+        <v>0.8103417963076822</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.518315740423141</v>
+        <v>0.7958670378907264</v>
       </c>
       <c r="O5">
-        <v>3.102315106829764</v>
+        <v>1.462163795775069</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3018568100973482</v>
+        <v>0.7162392910306039</v>
       </c>
       <c r="C6">
-        <v>0.04361644918343188</v>
+        <v>0.1287160560649596</v>
       </c>
       <c r="D6">
-        <v>0.2866331583527142</v>
+        <v>0.2901638418912569</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.383604471717767</v>
+        <v>0.7175617596595174</v>
       </c>
       <c r="G6">
-        <v>0.002456599841832462</v>
+        <v>0.0008133932449369717</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6383406633488526</v>
+        <v>0.2814880289546622</v>
       </c>
       <c r="J6">
-        <v>0.3282767966717302</v>
+        <v>0.3394604398983603</v>
       </c>
       <c r="K6">
-        <v>0.3212129168984745</v>
+        <v>0.8045308616936211</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.519017919514104</v>
+        <v>0.7974754677865263</v>
       </c>
       <c r="O6">
-        <v>3.103126860863668</v>
+        <v>1.461191657307509</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3123993869457991</v>
+        <v>0.7521765866182477</v>
       </c>
       <c r="C7">
-        <v>0.04550908700790046</v>
+        <v>0.1351022485866196</v>
       </c>
       <c r="D7">
-        <v>0.2896349172330162</v>
+        <v>0.3029049405024438</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.383106299377921</v>
+        <v>0.7280031473701598</v>
       </c>
       <c r="G7">
-        <v>0.002455866337605897</v>
+        <v>0.0008123223926333635</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6365772031541788</v>
+        <v>0.2803043467803512</v>
       </c>
       <c r="J7">
-        <v>0.331400910024982</v>
+        <v>0.3536999993669809</v>
       </c>
       <c r="K7">
-        <v>0.333082496054999</v>
+        <v>0.8448720540952195</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.514188199800891</v>
+        <v>0.786394632223665</v>
       </c>
       <c r="O7">
-        <v>3.097636919351785</v>
+        <v>1.468195224471074</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.359028048957498</v>
+        <v>0.9109825866251526</v>
       </c>
       <c r="C8">
-        <v>0.05385654908648974</v>
+        <v>0.1633302242483694</v>
       </c>
       <c r="D8">
-        <v>0.3031911149150375</v>
+        <v>0.3596867461810831</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.382536420414247</v>
+        <v>0.7770417458790035</v>
       </c>
       <c r="G8">
-        <v>0.002452800006159315</v>
+        <v>0.0008077585500704701</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6294885938842611</v>
+        <v>0.2763387249209615</v>
       </c>
       <c r="J8">
-        <v>0.3456355766519579</v>
+        <v>0.4175719824058177</v>
       </c>
       <c r="K8">
-        <v>0.3855444913570807</v>
+        <v>1.023142832413839</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.493968613805382</v>
+        <v>0.7396009725004085</v>
       </c>
       <c r="O8">
-        <v>3.076987073727523</v>
+        <v>1.50567144492075</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4508176999664215</v>
+        <v>1.223920089314021</v>
       </c>
       <c r="C9">
-        <v>0.07020682182916005</v>
+        <v>0.219021956099013</v>
       </c>
       <c r="D9">
-        <v>0.330882221567748</v>
+        <v>0.4734929780477728</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.387268866178218</v>
+        <v>0.8851146808819266</v>
       </c>
       <c r="G9">
-        <v>0.002447395750386505</v>
+        <v>0.0007993683532593357</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6180797620536467</v>
+        <v>0.2734766536198237</v>
       </c>
       <c r="J9">
-        <v>0.3751644619220258</v>
+        <v>0.5473333441207302</v>
       </c>
       <c r="K9">
-        <v>0.4886918730699392</v>
+        <v>1.374502198999721</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.458244915103419</v>
+        <v>0.6557978365781594</v>
       </c>
       <c r="O9">
-        <v>3.04934732537501</v>
+        <v>1.605230630172173</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5184494680599414</v>
+        <v>1.455519184156515</v>
       </c>
       <c r="C10">
-        <v>0.08220613077361349</v>
+        <v>0.2603199438633368</v>
       </c>
       <c r="D10">
-        <v>0.3518987739395811</v>
+        <v>0.5590699491699525</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.39431294574328</v>
+        <v>0.973052306800227</v>
       </c>
       <c r="G10">
-        <v>0.002443792730440398</v>
+        <v>0.0007935236502407815</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6112176000598595</v>
+        <v>0.2747651358200578</v>
       </c>
       <c r="J10">
-        <v>0.3978493844656725</v>
+        <v>0.6462229914480417</v>
       </c>
       <c r="K10">
-        <v>0.5646188681002968</v>
+        <v>1.634628528960832</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.434390394496843</v>
+        <v>0.5994741243668074</v>
       </c>
       <c r="O10">
-        <v>3.036882433331755</v>
+        <v>1.696743479114275</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5492551599248543</v>
+        <v>1.56142704833789</v>
       </c>
       <c r="C11">
-        <v>0.0876617824243624</v>
+        <v>0.2792328194770164</v>
       </c>
       <c r="D11">
-        <v>0.3616050986888695</v>
+        <v>0.5985386163171142</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.398292423742674</v>
+        <v>1.015214565589787</v>
       </c>
       <c r="G11">
-        <v>0.00244223264122174</v>
+        <v>0.0007909291028454932</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6084260499317971</v>
+        <v>0.2761812011657625</v>
       </c>
       <c r="J11">
-        <v>0.4083856902826142</v>
+        <v>0.6921748585270819</v>
       </c>
       <c r="K11">
-        <v>0.5991876867117014</v>
+        <v>1.753614261174988</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.424057227670025</v>
+        <v>0.5750835627636093</v>
       </c>
       <c r="O11">
-        <v>3.03291610736224</v>
+        <v>1.742950814761826</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5609256989036737</v>
+        <v>1.601626864278785</v>
       </c>
       <c r="C12">
-        <v>0.08972722928859866</v>
+        <v>0.2864165573707282</v>
       </c>
       <c r="D12">
-        <v>0.3653014943049584</v>
+        <v>0.613571723677353</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.399910785216704</v>
+        <v>1.031517842368899</v>
       </c>
       <c r="G12">
-        <v>0.002441653168974131</v>
+        <v>0.000789955415615813</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6074164454708253</v>
+        <v>0.2768451413223616</v>
       </c>
       <c r="J12">
-        <v>0.4124067426155733</v>
+        <v>0.7097317878421592</v>
       </c>
       <c r="K12">
-        <v>0.612281717026093</v>
+        <v>1.79878395155319</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.420218866854992</v>
+        <v>0.5660330456985871</v>
       </c>
       <c r="O12">
-        <v>3.031659272876254</v>
+        <v>1.761159136119801</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5584120227841254</v>
+        <v>1.592964640774085</v>
       </c>
       <c r="C13">
-        <v>0.0892824213201493</v>
+        <v>0.2848683774219865</v>
       </c>
       <c r="D13">
-        <v>0.3645044856365587</v>
+        <v>0.6103300367853706</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.399557287307147</v>
+        <v>1.027991188093182</v>
       </c>
       <c r="G13">
-        <v>0.002441777467080484</v>
+        <v>0.0007901647317645086</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6076317690301281</v>
+        <v>0.2766963308747812</v>
       </c>
       <c r="J13">
-        <v>0.411539350179126</v>
+        <v>0.7059433688691712</v>
       </c>
       <c r="K13">
-        <v>0.6094615347269041</v>
+        <v>1.789050543273049</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.421042208612402</v>
+        <v>0.5679738363636009</v>
       </c>
       <c r="O13">
-        <v>3.031919051117285</v>
+        <v>1.757205171274194</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5502152036388281</v>
+        <v>1.564732319095981</v>
       </c>
       <c r="C14">
-        <v>0.08783171822301483</v>
+        <v>0.2798233699438128</v>
       </c>
       <c r="D14">
-        <v>0.3619087869176667</v>
+        <v>0.5997735942214035</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.398423334518966</v>
+        <v>1.016548924342146</v>
       </c>
       <c r="G14">
-        <v>0.002442184741533182</v>
+        <v>0.000790848823002583</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6083420371247037</v>
+        <v>0.2762332145569601</v>
       </c>
       <c r="J14">
-        <v>0.4087158797287032</v>
+        <v>0.6936160503242235</v>
       </c>
       <c r="K14">
-        <v>0.6002648725875304</v>
+        <v>1.757328035750334</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.423739948357541</v>
+        <v>0.5743351991595045</v>
       </c>
       <c r="O14">
-        <v>3.032807793595936</v>
+        <v>1.744434269870339</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5451950602286502</v>
+        <v>1.547452029701788</v>
       </c>
       <c r="C15">
-        <v>0.08694305468304719</v>
+        <v>0.2767361164067097</v>
       </c>
       <c r="D15">
-        <v>0.360321553761338</v>
+        <v>0.5933191195294967</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.397743264681068</v>
+        <v>1.009584969808557</v>
       </c>
       <c r="G15">
-        <v>0.002442435678833632</v>
+        <v>0.0007912689830819967</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6087832829720803</v>
+        <v>0.2759664315358776</v>
       </c>
       <c r="J15">
-        <v>0.4069904834507554</v>
+        <v>0.6860860471818029</v>
       </c>
       <c r="K15">
-        <v>0.5946320973580725</v>
+        <v>1.73791229094806</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.425402106383856</v>
+        <v>0.5782561605020629</v>
       </c>
       <c r="O15">
-        <v>3.033384099527808</v>
+        <v>1.736705881601694</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5164369894879712</v>
+        <v>1.448610259194538</v>
       </c>
       <c r="C16">
-        <v>0.08184952655875577</v>
+        <v>0.2590867916866557</v>
       </c>
       <c r="D16">
-        <v>0.3512673642169659</v>
+        <v>0.5565022382378686</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.394068471102571</v>
+        <v>0.9703426040480565</v>
       </c>
       <c r="G16">
-        <v>0.002443896270069476</v>
+        <v>0.0007936944667883124</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6114066790450998</v>
+        <v>0.2746899952108564</v>
       </c>
       <c r="J16">
-        <v>0.397165175406812</v>
+        <v>0.6432407994678471</v>
       </c>
       <c r="K16">
-        <v>0.5623602486084849</v>
+        <v>1.62686721910805</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.435076125930202</v>
+        <v>0.6010936047685931</v>
       </c>
       <c r="O16">
-        <v>3.037175939053185</v>
+        <v>1.69382022802597</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4988045678914261</v>
+        <v>1.388126082400078</v>
       </c>
       <c r="C17">
-        <v>0.07872401823780706</v>
+        <v>0.2482943646705991</v>
       </c>
       <c r="D17">
-        <v>0.3457501506749736</v>
+        <v>0.5340610333075801</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.392012597020781</v>
+        <v>0.9468401982294949</v>
       </c>
       <c r="G17">
-        <v>0.002444812477321639</v>
+        <v>0.0007951985804122447</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6131006104694556</v>
+        <v>0.2741252846625777</v>
       </c>
       <c r="J17">
-        <v>0.3911932029319871</v>
+        <v>0.6172158526264582</v>
       </c>
       <c r="K17">
-        <v>0.5425695526484446</v>
+        <v>1.55892462078927</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.441143621812333</v>
+        <v>0.6154249575584902</v>
       </c>
       <c r="O17">
-        <v>3.039938614356373</v>
+        <v>1.668719840090517</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4886666349968891</v>
+        <v>1.35338817944853</v>
       </c>
       <c r="C18">
-        <v>0.07692604052074614</v>
+        <v>0.2420984878520187</v>
       </c>
       <c r="D18">
-        <v>0.3425905263914615</v>
+        <v>0.5212035882530301</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.390903070115598</v>
+        <v>0.9335237333917092</v>
       </c>
       <c r="G18">
-        <v>0.002445346889044945</v>
+        <v>0.0007960697801945738</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6141059820991366</v>
+        <v>0.2738780620224937</v>
       </c>
       <c r="J18">
-        <v>0.3877786903817224</v>
+        <v>0.6023368718251447</v>
       </c>
       <c r="K18">
-        <v>0.5311892587875775</v>
+        <v>1.519906108447572</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.444682274010091</v>
+        <v>0.623783328987459</v>
       </c>
       <c r="O18">
-        <v>3.041688016666825</v>
+        <v>1.654710292981235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4852347711774314</v>
+        <v>1.3416348303316</v>
       </c>
       <c r="C19">
-        <v>0.07631723237940946</v>
+        <v>0.2400025621477084</v>
       </c>
       <c r="D19">
-        <v>0.3415230945697658</v>
+        <v>0.5168586079631154</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.390539935030759</v>
+        <v>0.929048825666996</v>
       </c>
       <c r="G19">
-        <v>0.002445529110037445</v>
+        <v>0.0007963658090991344</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6144517185593656</v>
+        <v>0.2738074359634481</v>
       </c>
       <c r="J19">
-        <v>0.3866261000830775</v>
+        <v>0.5973140445849623</v>
       </c>
       <c r="K19">
-        <v>0.5273365855885572</v>
+        <v>1.506704921846648</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.445888779126705</v>
+        <v>0.6266328899174916</v>
       </c>
       <c r="O19">
-        <v>3.042307877645982</v>
+        <v>1.650038793551801</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5006811835540361</v>
+        <v>1.394559340514576</v>
       </c>
       <c r="C20">
-        <v>0.07905676220522651</v>
+        <v>0.2494420062596987</v>
       </c>
       <c r="D20">
-        <v>0.3463360474029571</v>
+        <v>0.5364446807467687</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.392223897769469</v>
+        <v>0.9493210264467251</v>
       </c>
       <c r="G20">
-        <v>0.002444714176479448</v>
+        <v>0.0007950378394058055</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6129170730366376</v>
+        <v>0.2741773106091081</v>
       </c>
       <c r="J20">
-        <v>0.3918268174123938</v>
+        <v>0.6199768313862961</v>
       </c>
       <c r="K20">
-        <v>0.5446760217722897</v>
+        <v>1.56615085884431</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.440492676725695</v>
+        <v>0.6138873612228881</v>
       </c>
       <c r="O20">
-        <v>3.039627922987137</v>
+        <v>1.671347203601783</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5526226747899159</v>
+        <v>1.573022134974821</v>
       </c>
       <c r="C21">
-        <v>0.08825783877432514</v>
+        <v>0.2813045872182727</v>
       </c>
       <c r="D21">
-        <v>0.3626706426188377</v>
+        <v>0.6028718310084287</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.398753380348353</v>
+        <v>1.019900415451332</v>
       </c>
       <c r="G21">
-        <v>0.002442064808886568</v>
+        <v>0.0007906476531851417</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6081321249310463</v>
+        <v>0.2763657076428743</v>
       </c>
       <c r="J21">
-        <v>0.4095443551494924</v>
+        <v>0.6972325084077795</v>
       </c>
       <c r="K21">
-        <v>0.6029660634040397</v>
+        <v>1.766642501067508</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.422945532217787</v>
+        <v>0.5724616026811695</v>
       </c>
       <c r="O21">
-        <v>3.032540094977236</v>
+        <v>1.748165672223763</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5865988386129857</v>
+        <v>1.690218471906235</v>
       </c>
       <c r="C22">
-        <v>0.09426838377558511</v>
+        <v>0.3022578734532999</v>
       </c>
       <c r="D22">
-        <v>0.3734675391591225</v>
+        <v>0.6467989484958991</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.40367019515206</v>
+        <v>1.06800829694636</v>
       </c>
       <c r="G22">
-        <v>0.002440399134305918</v>
+        <v>0.0007878295556353496</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6052817357110989</v>
+        <v>0.278544622333655</v>
       </c>
       <c r="J22">
-        <v>0.4213055436175495</v>
+        <v>0.7486413961106564</v>
       </c>
       <c r="K22">
-        <v>0.6410824821697076</v>
+        <v>1.89833999631341</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.411912220761179</v>
+        <v>0.5464740425215844</v>
       </c>
       <c r="O22">
-        <v>3.02933662040121</v>
+        <v>1.802539912915051</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5684626327048363</v>
+        <v>1.6276118997651</v>
       </c>
       <c r="C23">
-        <v>0.09106073166469741</v>
+        <v>0.2910615845371467</v>
       </c>
       <c r="D23">
-        <v>0.3676939813478555</v>
+        <v>0.6233038988001738</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.400986589078528</v>
+        <v>1.042141643740877</v>
       </c>
       <c r="G23">
-        <v>0.002441282128883523</v>
+        <v>0.0007893290954867725</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.606777700378391</v>
+        <v>0.2773102775435632</v>
       </c>
       <c r="J23">
-        <v>0.4150117446793899</v>
+        <v>0.7211135760015566</v>
       </c>
       <c r="K23">
-        <v>0.6207373661922873</v>
+        <v>1.827983274519028</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.417761110867501</v>
+        <v>0.5602416826895702</v>
       </c>
       <c r="O23">
-        <v>3.030915606674824</v>
+        <v>1.773119636871002</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4998327681174999</v>
+        <v>1.391650755856205</v>
       </c>
       <c r="C24">
-        <v>0.07890633202120512</v>
+        <v>0.2489231302590156</v>
       </c>
       <c r="D24">
-        <v>0.3460711251838404</v>
+        <v>0.5353668964665985</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.39212814310558</v>
+        <v>0.9481988374509172</v>
       </c>
       <c r="G24">
-        <v>0.002444758594476241</v>
+        <v>0.0007951104902995638</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6129999521663798</v>
+        <v>0.2741535491056766</v>
       </c>
       <c r="J24">
-        <v>0.3915403015808891</v>
+        <v>0.6187283352951596</v>
       </c>
       <c r="K24">
-        <v>0.5437236943818107</v>
+        <v>1.562883745333835</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.440786812106552</v>
+        <v>0.6145821382434882</v>
       </c>
       <c r="O24">
-        <v>3.039767884730168</v>
+        <v>1.670158065151384</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4259506660144154</v>
+        <v>1.139024356436806</v>
       </c>
       <c r="C25">
-        <v>0.06578584816097077</v>
+        <v>0.2039024153379927</v>
       </c>
       <c r="D25">
-        <v>0.323272815931773</v>
+        <v>0.4423960578886295</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.38536224567622</v>
+        <v>0.8544762775918997</v>
       </c>
       <c r="G25">
-        <v>0.002448792947562146</v>
+        <v>0.0008015803792047575</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.62089929841542</v>
+        <v>0.2736854431795877</v>
       </c>
       <c r="J25">
-        <v>0.3670026579614643</v>
+        <v>0.5116668689718438</v>
       </c>
       <c r="K25">
-        <v>0.4607609531287267</v>
+        <v>1.279171051313199</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.467488967886565</v>
+        <v>0.6775775278112768</v>
       </c>
       <c r="O25">
-        <v>3.055447870799782</v>
+        <v>1.575260337875989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9540875083089304</v>
+        <v>0.8502359809520215</v>
       </c>
       <c r="C2">
-        <v>0.1709952898109748</v>
+        <v>0.182715177062363</v>
       </c>
       <c r="D2">
-        <v>0.3752218233480278</v>
+        <v>0.1683056518294421</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7910900381753052</v>
+        <v>1.089632453719929</v>
       </c>
       <c r="G2">
-        <v>0.0008065605995785943</v>
+        <v>0.7272291326608666</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.004870341843970616</v>
       </c>
       <c r="I2">
-        <v>0.2755829880633343</v>
+        <v>0.003278912178775961</v>
       </c>
       <c r="J2">
-        <v>0.4351551613067812</v>
+        <v>0.5393761315647509</v>
       </c>
       <c r="K2">
-        <v>1.071533729156414</v>
+        <v>0.493237682269374</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2045160870459029</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9928275867206651</v>
       </c>
       <c r="N2">
-        <v>0.7274470880765556</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.517503298624916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4281856807274167</v>
+      </c>
+      <c r="P2">
+        <v>1.065359811832792</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8291689444453993</v>
+        <v>0.7396372356606946</v>
       </c>
       <c r="C3">
-        <v>0.1487858358955805</v>
+        <v>0.1585006621102991</v>
       </c>
       <c r="D3">
-        <v>0.3303408588297287</v>
+        <v>0.1486991755167679</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7512169962133441</v>
+        <v>1.033959229030245</v>
       </c>
       <c r="G3">
-        <v>0.000810077939109758</v>
+        <v>0.6933378601294748</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.007067189881205305</v>
       </c>
       <c r="I3">
-        <v>0.278137346893903</v>
+        <v>0.0048246352688186</v>
       </c>
       <c r="J3">
-        <v>0.3844810482314216</v>
+        <v>0.5279059756634297</v>
       </c>
       <c r="K3">
-        <v>0.9312999468738781</v>
+        <v>0.4836562897754568</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1831695613490254</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.863249894471636</v>
       </c>
       <c r="N3">
-        <v>0.7632897024803498</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.485101523783129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3746943029207159</v>
+      </c>
+      <c r="P3">
+        <v>1.096236139402777</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7525971861711298</v>
+        <v>0.6714519659057316</v>
       </c>
       <c r="C4">
-        <v>0.1351769931187192</v>
+        <v>0.1438612784792639</v>
       </c>
       <c r="D4">
-        <v>0.3030543119932503</v>
+        <v>0.1367196524851835</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7281268892630166</v>
+        <v>1.000247495873424</v>
       </c>
       <c r="G4">
-        <v>0.0008123099518361304</v>
+        <v>0.6729348260052745</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.008678907296328919</v>
       </c>
       <c r="I4">
-        <v>0.2802911668062684</v>
+        <v>0.006014726185350039</v>
       </c>
       <c r="J4">
-        <v>0.3538671512542493</v>
+        <v>0.5211419117695471</v>
       </c>
       <c r="K4">
-        <v>0.8453441955757057</v>
+        <v>0.4779489195314817</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1700357425602874</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7837277638195133</v>
       </c>
       <c r="N4">
-        <v>0.7862661063660337</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.468280660574734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3418841604085259</v>
+      </c>
+      <c r="P4">
+        <v>1.115680707655532</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7214158635837293</v>
+        <v>0.6428609483000969</v>
       </c>
       <c r="C5">
-        <v>0.1296359304975141</v>
+        <v>0.1382989153225367</v>
       </c>
       <c r="D5">
-        <v>0.2919964502695507</v>
+        <v>0.1319803374623945</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7190495088836357</v>
+        <v>0.9858752986196961</v>
       </c>
       <c r="G5">
-        <v>0.000813238014692086</v>
+        <v>0.6640121433136557</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.009402304442208909</v>
       </c>
       <c r="I5">
-        <v>0.2813103990803505</v>
+        <v>0.006638561232125362</v>
       </c>
       <c r="J5">
-        <v>0.3415063381407464</v>
+        <v>0.518091937885842</v>
       </c>
       <c r="K5">
-        <v>0.8103417963076822</v>
+        <v>0.4751534227996039</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1646604745750935</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7511644607846506</v>
       </c>
       <c r="N5">
-        <v>0.7958670378907264</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.462163795775069</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3285320805032867</v>
+      </c>
+      <c r="P5">
+        <v>1.123342513987513</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7162392910306039</v>
+        <v>0.6372130891044492</v>
       </c>
       <c r="C6">
-        <v>0.1287160560649596</v>
+        <v>0.1378084660815091</v>
       </c>
       <c r="D6">
-        <v>0.2901638418912569</v>
+        <v>0.1313525464079106</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7175617596595174</v>
+        <v>0.9825838471104973</v>
       </c>
       <c r="G6">
-        <v>0.0008133932449369717</v>
+        <v>0.6616756849016383</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.009529931631883232</v>
       </c>
       <c r="I6">
-        <v>0.2814880289546622</v>
+        <v>0.006851590854141776</v>
       </c>
       <c r="J6">
-        <v>0.3394604398983603</v>
+        <v>0.5171484170032556</v>
       </c>
       <c r="K6">
-        <v>0.8045308616936211</v>
+        <v>0.4740665993490651</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1637499725686808</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.745562514606263</v>
       </c>
       <c r="N6">
-        <v>0.7974754677865263</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.461191657307509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3263313712725378</v>
+      </c>
+      <c r="P6">
+        <v>1.1241577404593</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7521765866182477</v>
+        <v>0.6686108008514964</v>
       </c>
       <c r="C7">
-        <v>0.1351022485866196</v>
+        <v>0.1449625533520447</v>
       </c>
       <c r="D7">
-        <v>0.3029049405024438</v>
+        <v>0.1370891216352703</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7280031473701598</v>
+        <v>0.997564058735172</v>
       </c>
       <c r="G7">
-        <v>0.0008123223926333635</v>
+        <v>0.6704636783907034</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.008697960000284249</v>
       </c>
       <c r="I7">
-        <v>0.2803043467803512</v>
+        <v>0.006295605500733714</v>
       </c>
       <c r="J7">
-        <v>0.3536999993669809</v>
+        <v>0.5198970368591631</v>
       </c>
       <c r="K7">
-        <v>0.8448720540952195</v>
+        <v>0.4762042323982527</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.169916021190069</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7827542383975299</v>
       </c>
       <c r="N7">
-        <v>0.786394632223665</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.468195224471074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3417481647828282</v>
+      </c>
+      <c r="P7">
+        <v>1.114529898968481</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9109825866251526</v>
+        <v>0.8088716182554947</v>
       </c>
       <c r="C8">
-        <v>0.1633302242483694</v>
+        <v>0.1758836428462587</v>
       </c>
       <c r="D8">
-        <v>0.3596867461810831</v>
+        <v>0.1621095443333189</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7770417458790035</v>
+        <v>1.067042279895247</v>
       </c>
       <c r="G8">
-        <v>0.0008077585500704701</v>
+        <v>0.7123463529549383</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.005581359148503329</v>
       </c>
       <c r="I8">
-        <v>0.2763387249209615</v>
+        <v>0.004085265941129457</v>
       </c>
       <c r="J8">
-        <v>0.4175719824058177</v>
+        <v>0.5337752509150988</v>
       </c>
       <c r="K8">
-        <v>1.023142832413839</v>
+        <v>0.4876437715975541</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1970978869347704</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9474175455906391</v>
       </c>
       <c r="N8">
-        <v>0.7396009725004085</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.50567144492075</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.409790540363062</v>
+      </c>
+      <c r="P8">
+        <v>1.074309724398017</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.223920089314021</v>
+        <v>1.086344914928787</v>
       </c>
       <c r="C9">
-        <v>0.219021956099013</v>
+        <v>0.2364369039590599</v>
       </c>
       <c r="D9">
-        <v>0.4734929780477728</v>
+        <v>0.2109402118701382</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8851146808819266</v>
+        <v>1.211862076156166</v>
       </c>
       <c r="G9">
-        <v>0.0007993683532593357</v>
+        <v>0.8022294691028264</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001662897785506878</v>
       </c>
       <c r="I9">
-        <v>0.2734766536198237</v>
+        <v>0.001371238504172645</v>
       </c>
       <c r="J9">
-        <v>0.5473333441207302</v>
+        <v>0.5654841575897649</v>
       </c>
       <c r="K9">
-        <v>1.374502198999721</v>
+        <v>0.5146228757397253</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2503744779183563</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.272014129963821</v>
       </c>
       <c r="N9">
-        <v>0.6557978365781594</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.605230630172173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5435780418457554</v>
+      </c>
+      <c r="P9">
+        <v>1.00157348439749</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.455519184156515</v>
+        <v>1.285693886687739</v>
       </c>
       <c r="C10">
-        <v>0.2603199438633368</v>
+        <v>0.2809127928794339</v>
       </c>
       <c r="D10">
-        <v>0.5590699491699525</v>
+        <v>0.2401843534563852</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.973052306800227</v>
+        <v>1.301304183484518</v>
       </c>
       <c r="G10">
-        <v>0.0007935236502407815</v>
+        <v>0.8588199776971237</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0005443772455206997</v>
       </c>
       <c r="I10">
-        <v>0.2747651358200578</v>
+        <v>0.0009196827104434036</v>
       </c>
       <c r="J10">
-        <v>0.6462229914480417</v>
+        <v>0.58436973329826</v>
       </c>
       <c r="K10">
-        <v>1.634628528960832</v>
+        <v>0.5291027092251284</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2741369267091756</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.506299532847379</v>
       </c>
       <c r="N10">
-        <v>0.5994741243668074</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.696743479114275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6275461167748944</v>
+      </c>
+      <c r="P10">
+        <v>0.9459898957511896</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.56142704833789</v>
+        <v>1.352017010175445</v>
       </c>
       <c r="C11">
-        <v>0.2792328194770164</v>
+        <v>0.2844048483951269</v>
       </c>
       <c r="D11">
-        <v>0.5985386163171142</v>
+        <v>0.1943329101944613</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.015214565589787</v>
+        <v>1.179540154121497</v>
       </c>
       <c r="G11">
-        <v>0.0007909291028454932</v>
+        <v>0.7884950200374874</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01918125960323636</v>
       </c>
       <c r="I11">
-        <v>0.2761812011657625</v>
+        <v>0.001429855166869665</v>
       </c>
       <c r="J11">
-        <v>0.6921748585270819</v>
+        <v>0.5448628875993364</v>
       </c>
       <c r="K11">
-        <v>1.753614261174988</v>
+        <v>0.4860683474146867</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1712758936965386</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.568587287742133</v>
       </c>
       <c r="N11">
-        <v>0.5750835627636093</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.742950814761826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5415357451999014</v>
+      </c>
+      <c r="P11">
+        <v>0.8885634841163306</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.601626864278785</v>
+        <v>1.369604458394861</v>
       </c>
       <c r="C12">
-        <v>0.2864165573707282</v>
+        <v>0.2758971864846558</v>
       </c>
       <c r="D12">
-        <v>0.613571723677353</v>
+        <v>0.1534924944210303</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.031517842368899</v>
+        <v>1.066123688730585</v>
       </c>
       <c r="G12">
-        <v>0.000789955415615813</v>
+        <v>0.7226001909055526</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05801175142720183</v>
       </c>
       <c r="I12">
-        <v>0.2768451413223616</v>
+        <v>0.001431216811430325</v>
       </c>
       <c r="J12">
-        <v>0.7097317878421592</v>
+        <v>0.5100495944480912</v>
       </c>
       <c r="K12">
-        <v>1.79878395155319</v>
+        <v>0.4504875124061627</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1071228222298508</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.571699768930358</v>
       </c>
       <c r="N12">
-        <v>0.5660330456985871</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.761159136119801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4572944132963812</v>
+      </c>
+      <c r="P12">
+        <v>0.8598963354559306</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.592964640774085</v>
+        <v>1.346596012440699</v>
       </c>
       <c r="C13">
-        <v>0.2848683774219865</v>
+        <v>0.2595721614553241</v>
       </c>
       <c r="D13">
-        <v>0.6103300367853706</v>
+        <v>0.1150378777260528</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.027991188093182</v>
+        <v>0.9489037072003867</v>
       </c>
       <c r="G13">
-        <v>0.0007901647317645086</v>
+        <v>0.6526190903739462</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1140409546815135</v>
       </c>
       <c r="I13">
-        <v>0.2766963308747812</v>
+        <v>0.001387530594892716</v>
       </c>
       <c r="J13">
-        <v>0.7059433688691712</v>
+        <v>0.4749071572114758</v>
       </c>
       <c r="K13">
-        <v>1.789050543273049</v>
+        <v>0.4158685022296673</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06885863093122779</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.528502206399651</v>
       </c>
       <c r="N13">
-        <v>0.5679738363636009</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.757205171274194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3701984876648865</v>
+      </c>
+      <c r="P13">
+        <v>0.8490865831010734</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.564732319095981</v>
+        <v>1.311425373239246</v>
       </c>
       <c r="C14">
-        <v>0.2798233699438128</v>
+        <v>0.2450681960916512</v>
       </c>
       <c r="D14">
-        <v>0.5997735942214035</v>
+        <v>0.09015816390022735</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.016548924342146</v>
+        <v>0.865837755937946</v>
       </c>
       <c r="G14">
-        <v>0.000790848823002583</v>
+        <v>0.601857557242397</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1636568187928447</v>
       </c>
       <c r="I14">
-        <v>0.2762332145569601</v>
+        <v>0.001441963235779831</v>
       </c>
       <c r="J14">
-        <v>0.6936160503242235</v>
+        <v>0.450142939217244</v>
       </c>
       <c r="K14">
-        <v>1.757328035750334</v>
+        <v>0.3919871111650437</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05751091980693879</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.477328382555868</v>
       </c>
       <c r="N14">
-        <v>0.5743351991595045</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.744434269870339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3093973464287814</v>
+      </c>
+      <c r="P14">
+        <v>0.8500870120396744</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.547452029701788</v>
+        <v>1.293258409516881</v>
       </c>
       <c r="C15">
-        <v>0.2767361164067097</v>
+        <v>0.2403526702057235</v>
       </c>
       <c r="D15">
-        <v>0.5933191195294967</v>
+        <v>0.08415255591074811</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.009584969808557</v>
+        <v>0.8436568350273745</v>
       </c>
       <c r="G15">
-        <v>0.0007912689830819967</v>
+        <v>0.5877555240822687</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1762858672568939</v>
       </c>
       <c r="I15">
-        <v>0.2759664315358776</v>
+        <v>0.001576231995325195</v>
       </c>
       <c r="J15">
-        <v>0.6860860471818029</v>
+        <v>0.4436190489031731</v>
       </c>
       <c r="K15">
-        <v>1.73791229094806</v>
+        <v>0.3857533683195697</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05667060217554853</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.454951343462369</v>
       </c>
       <c r="N15">
-        <v>0.5782561605020629</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.736705881601694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2933565672566516</v>
+      </c>
+      <c r="P15">
+        <v>0.8531572576172115</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.448610259194538</v>
+        <v>1.210910973523653</v>
       </c>
       <c r="C16">
-        <v>0.2590867916866557</v>
+        <v>0.22549308072945</v>
       </c>
       <c r="D16">
-        <v>0.5565022382378686</v>
+        <v>0.08072791471924035</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9703426040480565</v>
+        <v>0.8294575406693312</v>
       </c>
       <c r="G16">
-        <v>0.0007936944667883124</v>
+        <v>0.5769894213457007</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1641390207500564</v>
       </c>
       <c r="I16">
-        <v>0.2746899952108564</v>
+        <v>0.001841363819561792</v>
       </c>
       <c r="J16">
-        <v>0.6432407994678471</v>
+        <v>0.4420992732776909</v>
       </c>
       <c r="K16">
-        <v>1.62686721910805</v>
+        <v>0.3857649421257392</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05542499657933275</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.363269645604902</v>
       </c>
       <c r="N16">
-        <v>0.6010936047685931</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.69382022802597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2776829482581249</v>
+      </c>
+      <c r="P16">
+        <v>0.8765753038190258</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.388126082400078</v>
+        <v>1.166413298283288</v>
       </c>
       <c r="C17">
-        <v>0.2482943646705991</v>
+        <v>0.2218391895616634</v>
       </c>
       <c r="D17">
-        <v>0.5340610333075801</v>
+        <v>0.09072773841452175</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9468401982294949</v>
+        <v>0.8619295071083144</v>
       </c>
       <c r="G17">
-        <v>0.0007951985804122447</v>
+        <v>0.5953677614016613</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1266718517867673</v>
       </c>
       <c r="I17">
-        <v>0.2741252846625777</v>
+        <v>0.002061866778322319</v>
       </c>
       <c r="J17">
-        <v>0.6172158526264582</v>
+        <v>0.4539844046567794</v>
       </c>
       <c r="K17">
-        <v>1.55892462078927</v>
+        <v>0.3982835437929744</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05786098877592405</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.320169847228414</v>
       </c>
       <c r="N17">
-        <v>0.6154249575584902</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.668719840090517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2969222945547685</v>
+      </c>
+      <c r="P17">
+        <v>0.8938752147785962</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.35338817944853</v>
+        <v>1.151332217237638</v>
       </c>
       <c r="C18">
-        <v>0.2420984878520187</v>
+        <v>0.2264233305444066</v>
       </c>
       <c r="D18">
-        <v>0.5212035882530301</v>
+        <v>0.1156390836114838</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9335237333917092</v>
+        <v>0.942542883446869</v>
       </c>
       <c r="G18">
-        <v>0.0007960697801945738</v>
+        <v>0.6436514175605339</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07379983773080312</v>
       </c>
       <c r="I18">
-        <v>0.2738780620224937</v>
+        <v>0.001894662529838165</v>
       </c>
       <c r="J18">
-        <v>0.6023368718251447</v>
+        <v>0.4800427765415947</v>
       </c>
       <c r="K18">
-        <v>1.519906108447572</v>
+        <v>0.4248345837590293</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07723804936256329</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.314017079071675</v>
       </c>
       <c r="N18">
-        <v>0.623783328987459</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.654710292981235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3517758342550792</v>
+      </c>
+      <c r="P18">
+        <v>0.9112674850341489</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.3416348303316</v>
+        <v>1.156129830062326</v>
       </c>
       <c r="C19">
-        <v>0.2400025621477084</v>
+        <v>0.2395938938576734</v>
       </c>
       <c r="D19">
-        <v>0.5168586079631154</v>
+        <v>0.1552308045278181</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.929048825666996</v>
+        <v>1.056904418519068</v>
       </c>
       <c r="G19">
-        <v>0.0007963658090991344</v>
+        <v>0.7109354564997972</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02810543332569182</v>
       </c>
       <c r="I19">
-        <v>0.2738074359634481</v>
+        <v>0.0019585483225244</v>
       </c>
       <c r="J19">
-        <v>0.5973140445849623</v>
+        <v>0.5146335194009026</v>
       </c>
       <c r="K19">
-        <v>1.506704921846648</v>
+        <v>0.4593807126117397</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1290576445973599</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.336859324779397</v>
       </c>
       <c r="N19">
-        <v>0.6266328899174916</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.650038793551801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4370316350092125</v>
+      </c>
+      <c r="P19">
+        <v>0.9312108058431061</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.394559340514576</v>
+        <v>1.225409690016733</v>
       </c>
       <c r="C20">
-        <v>0.2494420062596987</v>
+        <v>0.2727942310158653</v>
       </c>
       <c r="D20">
-        <v>0.5364446807467687</v>
+        <v>0.2335434336046092</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9493210264467251</v>
+        <v>1.269122109281156</v>
       </c>
       <c r="G20">
-        <v>0.0007950378394058055</v>
+        <v>0.8360422019635223</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0007313209615853467</v>
       </c>
       <c r="I20">
-        <v>0.2741773106091081</v>
+        <v>0.001738334643308193</v>
       </c>
       <c r="J20">
-        <v>0.6199768313862961</v>
+        <v>0.5753765849727017</v>
       </c>
       <c r="K20">
-        <v>1.56615085884431</v>
+        <v>0.5197563926488868</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2670914245783962</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.442740675530359</v>
       </c>
       <c r="N20">
-        <v>0.6138873612228881</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.671347203601783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6049891570726942</v>
+      </c>
+      <c r="P20">
+        <v>0.9568467642172891</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.573022134974821</v>
+        <v>1.38330561834735</v>
       </c>
       <c r="C21">
-        <v>0.2813045872182727</v>
+        <v>0.3101155453695128</v>
       </c>
       <c r="D21">
-        <v>0.6028718310084287</v>
+        <v>0.267170232136408</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.019900415451332</v>
+        <v>1.369605980003314</v>
       </c>
       <c r="G21">
-        <v>0.0007906476531851417</v>
+        <v>0.89890222873818</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.559460694368966E-05</v>
       </c>
       <c r="I21">
-        <v>0.2763657076428743</v>
+        <v>0.001695249477102756</v>
       </c>
       <c r="J21">
-        <v>0.6972325084077795</v>
+        <v>0.5996996842682734</v>
       </c>
       <c r="K21">
-        <v>1.766642501067508</v>
+        <v>0.5410225021450046</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3093092802932063</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.631048756856813</v>
       </c>
       <c r="N21">
-        <v>0.5724616026811695</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.748165672223763</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6925818158601302</v>
+      </c>
+      <c r="P21">
+        <v>0.9225187268197566</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.690218471906235</v>
+        <v>1.488566797226497</v>
       </c>
       <c r="C22">
-        <v>0.3022578734532999</v>
+        <v>0.3322139061118037</v>
       </c>
       <c r="D22">
-        <v>0.6467989484958991</v>
+        <v>0.284966896001265</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.06800829694636</v>
+        <v>1.429692148534315</v>
       </c>
       <c r="G22">
-        <v>0.0007878295556353496</v>
+        <v>0.9381106044317278</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.839180292291132E-05</v>
       </c>
       <c r="I22">
-        <v>0.278544622333655</v>
+        <v>0.001671069353184507</v>
       </c>
       <c r="J22">
-        <v>0.7486413961106564</v>
+        <v>0.6147217102154201</v>
       </c>
       <c r="K22">
-        <v>1.89833999631341</v>
+        <v>0.5545172426227012</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3291618747656599</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.752737417977329</v>
       </c>
       <c r="N22">
-        <v>0.5464740425215844</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.802539912915051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7423993136527898</v>
+      </c>
+      <c r="P22">
+        <v>0.899835519665082</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.6276118997651</v>
+        <v>1.435401713724531</v>
       </c>
       <c r="C23">
-        <v>0.2910615845371467</v>
+        <v>0.3189469930962616</v>
       </c>
       <c r="D23">
-        <v>0.6233038988001738</v>
+        <v>0.2749308625810158</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.042141643740877</v>
+        <v>1.400473194231552</v>
       </c>
       <c r="G23">
-        <v>0.0007893290954867725</v>
+        <v>0.9198795588193605</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.944875777150969E-07</v>
       </c>
       <c r="I23">
-        <v>0.2773102775435632</v>
+        <v>0.0013540530282663</v>
       </c>
       <c r="J23">
-        <v>0.7211135760015566</v>
+        <v>0.6080642736884982</v>
       </c>
       <c r="K23">
-        <v>1.827983274519028</v>
+        <v>0.5492722956206109</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.318614856722732</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.688421140963044</v>
       </c>
       <c r="N23">
-        <v>0.5602416826895702</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.773119636871002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7157442244843182</v>
+      </c>
+      <c r="P23">
+        <v>0.9131342489938064</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.391650755856205</v>
+        <v>1.229221863604181</v>
       </c>
       <c r="C24">
-        <v>0.2489231302590156</v>
+        <v>0.2717271617007668</v>
       </c>
       <c r="D24">
-        <v>0.5353668964665985</v>
+        <v>0.2379809373580599</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9481988374509172</v>
+        <v>1.286823057776999</v>
       </c>
       <c r="G24">
-        <v>0.0007951104902995638</v>
+        <v>0.8478827994040046</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.000564101168939235</v>
       </c>
       <c r="I24">
-        <v>0.2741535491056766</v>
+        <v>0.001238087680382804</v>
       </c>
       <c r="J24">
-        <v>0.6187283352951596</v>
+        <v>0.5814471661997374</v>
       </c>
       <c r="K24">
-        <v>1.562883745333835</v>
+        <v>0.5268619573212376</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2787179578745054</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.444608416909318</v>
       </c>
       <c r="N24">
-        <v>0.6145821382434882</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.670158065151384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6152284196254243</v>
+      </c>
+      <c r="P24">
+        <v>0.9627309429881699</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.139024356436806</v>
+        <v>1.00692992274395</v>
       </c>
       <c r="C25">
-        <v>0.2039024153379927</v>
+        <v>0.2219711764186201</v>
       </c>
       <c r="D25">
-        <v>0.4423960578886295</v>
+        <v>0.1984562422050118</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8544762775918997</v>
+        <v>1.167696797930162</v>
       </c>
       <c r="G25">
-        <v>0.0008015803792047575</v>
+        <v>0.7732471166067114</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.00247765283644763</v>
       </c>
       <c r="I25">
-        <v>0.2736854431795877</v>
+        <v>0.00232046111053652</v>
       </c>
       <c r="J25">
-        <v>0.5116668689718438</v>
+        <v>0.5544784753336813</v>
       </c>
       <c r="K25">
-        <v>1.279171051313199</v>
+        <v>0.5040871239318321</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2358736662300558</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.183062414087772</v>
       </c>
       <c r="N25">
-        <v>0.6775775278112768</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.575260337875989</v>
+        <v>0.5073909254190241</v>
+      </c>
+      <c r="P25">
+        <v>1.0187415162872</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8502359809520215</v>
+        <v>0.793214802615978</v>
       </c>
       <c r="C2">
-        <v>0.182715177062363</v>
+        <v>0.2101787846264074</v>
       </c>
       <c r="D2">
-        <v>0.1683056518294421</v>
+        <v>0.1820794555216736</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.089632453719929</v>
+        <v>1.012928797046641</v>
       </c>
       <c r="G2">
-        <v>0.7272291326608666</v>
+        <v>0.6400897669098811</v>
       </c>
       <c r="H2">
-        <v>0.004870341843970616</v>
+        <v>0.004347493329947105</v>
       </c>
       <c r="I2">
-        <v>0.003278912178775961</v>
+        <v>0.002251285729538921</v>
       </c>
       <c r="J2">
-        <v>0.5393761315647509</v>
+        <v>0.5190988248892552</v>
       </c>
       <c r="K2">
-        <v>0.493237682269374</v>
+        <v>0.4307886375441008</v>
       </c>
       <c r="L2">
-        <v>0.2045160870459029</v>
+        <v>0.2017136857694126</v>
       </c>
       <c r="M2">
-        <v>0.9928275867206651</v>
+        <v>0.1266482041646775</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2067032248723706</v>
       </c>
       <c r="O2">
-        <v>0.4281856807274167</v>
+        <v>0.9827028848896475</v>
       </c>
       <c r="P2">
-        <v>1.065359811832792</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4305318352297149</v>
+      </c>
+      <c r="R2">
+        <v>1.004145895565479</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7396372356606946</v>
+        <v>0.6937934500022891</v>
       </c>
       <c r="C3">
-        <v>0.1585006621102991</v>
+        <v>0.1804758968636264</v>
       </c>
       <c r="D3">
-        <v>0.1486991755167679</v>
+        <v>0.160620152877371</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.033959229030245</v>
+        <v>0.9660431412873862</v>
       </c>
       <c r="G3">
-        <v>0.6933378601294748</v>
+        <v>0.6162762479243042</v>
       </c>
       <c r="H3">
-        <v>0.007067189881205305</v>
+        <v>0.006323609304324351</v>
       </c>
       <c r="I3">
-        <v>0.0048246352688186</v>
+        <v>0.003304868519172555</v>
       </c>
       <c r="J3">
-        <v>0.5279059756634297</v>
+        <v>0.5073108212112203</v>
       </c>
       <c r="K3">
-        <v>0.4836562897754568</v>
+        <v>0.4260904009915514</v>
       </c>
       <c r="L3">
-        <v>0.1831695613490254</v>
+        <v>0.2047803529146357</v>
       </c>
       <c r="M3">
-        <v>0.863249894471636</v>
+        <v>0.1214524472898457</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1858295844521791</v>
       </c>
       <c r="O3">
-        <v>0.3746943029207159</v>
+        <v>0.8556074600976444</v>
       </c>
       <c r="P3">
-        <v>1.096236139402777</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3768315090943091</v>
+      </c>
+      <c r="R3">
+        <v>1.035254682591408</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6714519659057316</v>
+        <v>0.6322796783105389</v>
       </c>
       <c r="C4">
-        <v>0.1438612784792639</v>
+        <v>0.1625745759852606</v>
       </c>
       <c r="D4">
-        <v>0.1367196524851835</v>
+        <v>0.1475315612225501</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.000247495873424</v>
+        <v>0.9375557450316094</v>
       </c>
       <c r="G4">
-        <v>0.6729348260052745</v>
+        <v>0.6020441179520049</v>
       </c>
       <c r="H4">
-        <v>0.008678907296328919</v>
+        <v>0.00777548390244992</v>
       </c>
       <c r="I4">
-        <v>0.006014726185350039</v>
+        <v>0.004146100762230098</v>
       </c>
       <c r="J4">
-        <v>0.5211419117695471</v>
+        <v>0.5000902298368288</v>
       </c>
       <c r="K4">
-        <v>0.4779489195314817</v>
+        <v>0.4232740141903371</v>
       </c>
       <c r="L4">
-        <v>0.1700357425602874</v>
+        <v>0.2066362394274286</v>
       </c>
       <c r="M4">
-        <v>0.7837277638195133</v>
+        <v>0.1188526552349725</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1729779116667132</v>
       </c>
       <c r="O4">
-        <v>0.3418841604085259</v>
+        <v>0.7775099396877181</v>
       </c>
       <c r="P4">
-        <v>1.115680707655532</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3438827713956201</v>
+      </c>
+      <c r="R4">
+        <v>1.054839044921529</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6428609483000969</v>
+        <v>0.6064002207660621</v>
       </c>
       <c r="C5">
-        <v>0.1382989153225367</v>
+        <v>0.1557295050228049</v>
       </c>
       <c r="D5">
-        <v>0.1319803374623945</v>
+        <v>0.1423487669945871</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9858752986196961</v>
+        <v>0.9253137258397075</v>
       </c>
       <c r="G5">
-        <v>0.6640121433136557</v>
+        <v>0.5956904155565041</v>
       </c>
       <c r="H5">
-        <v>0.009402304442208909</v>
+        <v>0.008427564093980461</v>
       </c>
       <c r="I5">
-        <v>0.006638561232125362</v>
+        <v>0.004627674337843501</v>
       </c>
       <c r="J5">
-        <v>0.518091937885842</v>
+        <v>0.4968038220085589</v>
       </c>
       <c r="K5">
-        <v>0.4751534227996039</v>
+        <v>0.4216826407145327</v>
       </c>
       <c r="L5">
-        <v>0.1646604745750935</v>
+        <v>0.2071665506875782</v>
       </c>
       <c r="M5">
-        <v>0.7511644607846506</v>
+        <v>0.1178141684886427</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.167716409922825</v>
       </c>
       <c r="O5">
-        <v>0.3285320805032867</v>
+        <v>0.7455084855959626</v>
       </c>
       <c r="P5">
-        <v>1.123342513987513</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3304718405267693</v>
+      </c>
+      <c r="R5">
+        <v>1.06263246390531</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6372130891044492</v>
+        <v>0.6012481972075818</v>
       </c>
       <c r="C6">
-        <v>0.1378084660815091</v>
+        <v>0.1550521464153576</v>
       </c>
       <c r="D6">
-        <v>0.1313525464079106</v>
+        <v>0.1416493482320789</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9825838471104973</v>
+        <v>0.9224261275856236</v>
       </c>
       <c r="G6">
-        <v>0.6616756849016383</v>
+        <v>0.5938523987726541</v>
       </c>
       <c r="H6">
-        <v>0.009529931631883232</v>
+        <v>0.008542571063719223</v>
       </c>
       <c r="I6">
-        <v>0.006851590854141776</v>
+        <v>0.004831514605831089</v>
       </c>
       <c r="J6">
-        <v>0.5171484170032556</v>
+        <v>0.4958337777422201</v>
       </c>
       <c r="K6">
-        <v>0.4740665993490651</v>
+        <v>0.4208584571608824</v>
       </c>
       <c r="L6">
-        <v>0.1637499725686808</v>
+        <v>0.2069873632216677</v>
       </c>
       <c r="M6">
-        <v>0.745562514606263</v>
+        <v>0.1174953769780291</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1668253729411049</v>
       </c>
       <c r="O6">
-        <v>0.3263313712725378</v>
+        <v>0.7400041337552636</v>
       </c>
       <c r="P6">
-        <v>1.1241577404593</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3282610004136757</v>
+      </c>
+      <c r="R6">
+        <v>1.06356200855245</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6686108008514964</v>
+        <v>0.629101339112907</v>
       </c>
       <c r="C7">
-        <v>0.1449625533520447</v>
+        <v>0.1632254808753402</v>
       </c>
       <c r="D7">
-        <v>0.1370891216352703</v>
+        <v>0.1482097264111104</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.997564058735172</v>
+        <v>0.933554042090222</v>
       </c>
       <c r="G7">
-        <v>0.6704636783907034</v>
+        <v>0.6028070732217401</v>
       </c>
       <c r="H7">
-        <v>0.008697960000284249</v>
+        <v>0.007798731590903996</v>
       </c>
       <c r="I7">
-        <v>0.006295605500733714</v>
+        <v>0.00447020267080056</v>
       </c>
       <c r="J7">
-        <v>0.5198970368591631</v>
+        <v>0.4935266873993811</v>
       </c>
       <c r="K7">
-        <v>0.4762042323982527</v>
+        <v>0.421073169403936</v>
       </c>
       <c r="L7">
-        <v>0.169916021190069</v>
+        <v>0.205629077922687</v>
       </c>
       <c r="M7">
-        <v>0.7827542383975299</v>
+        <v>0.1182120875014299</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1728698530564827</v>
       </c>
       <c r="O7">
-        <v>0.3417481647828282</v>
+        <v>0.7754633850291555</v>
       </c>
       <c r="P7">
-        <v>1.114529898968481</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3436105477055662</v>
+      </c>
+      <c r="R7">
+        <v>1.053460736508214</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8088716182554947</v>
+        <v>0.7542324633705562</v>
       </c>
       <c r="C8">
-        <v>0.1758836428462587</v>
+        <v>0.1998393264310181</v>
       </c>
       <c r="D8">
-        <v>0.1621095443333189</v>
+        <v>0.176289850007052</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.067042279895247</v>
+        <v>0.9886695811005168</v>
       </c>
       <c r="G8">
-        <v>0.7123463529549383</v>
+        <v>0.6390080540109864</v>
       </c>
       <c r="H8">
-        <v>0.005581359148503329</v>
+        <v>0.005001950911812103</v>
       </c>
       <c r="I8">
-        <v>0.004085265941129457</v>
+        <v>0.002962064396527353</v>
       </c>
       <c r="J8">
-        <v>0.5337752509150988</v>
+        <v>0.4959725543084232</v>
       </c>
       <c r="K8">
-        <v>0.4876437715975541</v>
+        <v>0.4250227522149679</v>
       </c>
       <c r="L8">
-        <v>0.1970978869347704</v>
+        <v>0.2009922716948083</v>
       </c>
       <c r="M8">
-        <v>0.9474175455906391</v>
+        <v>0.1234076096932739</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1994840664226203</v>
       </c>
       <c r="O8">
-        <v>0.409790540363062</v>
+        <v>0.9345138374235091</v>
       </c>
       <c r="P8">
-        <v>1.074309724398017</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4116130448764679</v>
+      </c>
+      <c r="R8">
+        <v>1.012055932496461</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.086344914928787</v>
+        <v>1.002016939865001</v>
       </c>
       <c r="C9">
-        <v>0.2364369039590599</v>
+        <v>0.2741150894613895</v>
       </c>
       <c r="D9">
-        <v>0.2109402118701382</v>
+        <v>0.2302061508735562</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.211862076156166</v>
+        <v>1.109029221544517</v>
       </c>
       <c r="G9">
-        <v>0.8022294691028264</v>
+        <v>0.7062689716245529</v>
       </c>
       <c r="H9">
-        <v>0.001662897785506878</v>
+        <v>0.001481555155103731</v>
       </c>
       <c r="I9">
-        <v>0.001371238504172645</v>
+        <v>0.001139750764108882</v>
       </c>
       <c r="J9">
-        <v>0.5654841575897649</v>
+        <v>0.5220574075722197</v>
       </c>
       <c r="K9">
-        <v>0.5146228757397253</v>
+        <v>0.4384394918476993</v>
       </c>
       <c r="L9">
-        <v>0.2503744779183563</v>
+        <v>0.1939386620703694</v>
       </c>
       <c r="M9">
-        <v>1.272014129963821</v>
+        <v>0.1398848415349754</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2515326238468916</v>
       </c>
       <c r="O9">
-        <v>0.5435780418457554</v>
+        <v>1.251176109952723</v>
       </c>
       <c r="P9">
-        <v>1.00157348439749</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5457101938955304</v>
+      </c>
+      <c r="R9">
+        <v>0.9382206234946935</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.285693886687739</v>
+        <v>1.176513843662121</v>
       </c>
       <c r="C10">
-        <v>0.2809127928794339</v>
+        <v>0.325492448274872</v>
       </c>
       <c r="D10">
-        <v>0.2401843534563852</v>
+        <v>0.2646959853984612</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.301304183484518</v>
+        <v>1.172988228212887</v>
       </c>
       <c r="G10">
-        <v>0.8588199776971237</v>
+        <v>0.7659296047529693</v>
       </c>
       <c r="H10">
-        <v>0.0005443772455206997</v>
+        <v>0.0005093475261324087</v>
       </c>
       <c r="I10">
-        <v>0.0009196827104434036</v>
+        <v>0.001080187951655986</v>
       </c>
       <c r="J10">
-        <v>0.58436973329826</v>
+        <v>0.5069868909540389</v>
       </c>
       <c r="K10">
-        <v>0.5291027092251284</v>
+        <v>0.4401184694230125</v>
       </c>
       <c r="L10">
-        <v>0.2741369267091756</v>
+        <v>0.1855626336952518</v>
       </c>
       <c r="M10">
-        <v>1.506299532847379</v>
+        <v>0.1514828709481399</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2744245569599428</v>
       </c>
       <c r="O10">
-        <v>0.6275461167748944</v>
+        <v>1.472616047806582</v>
       </c>
       <c r="P10">
-        <v>0.9459898957511896</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6289571421371889</v>
+      </c>
+      <c r="R10">
+        <v>0.8817019966787569</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.352017010175445</v>
+        <v>1.235367812028329</v>
       </c>
       <c r="C11">
-        <v>0.2844048483951269</v>
+        <v>0.3211269624047475</v>
       </c>
       <c r="D11">
-        <v>0.1943329101944613</v>
+        <v>0.2194900542189373</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.179540154121497</v>
+        <v>1.043765464096211</v>
       </c>
       <c r="G11">
-        <v>0.7884950200374874</v>
+        <v>0.7400279543126516</v>
       </c>
       <c r="H11">
-        <v>0.01918125960323636</v>
+        <v>0.01916698672544115</v>
       </c>
       <c r="I11">
-        <v>0.001429855166869665</v>
+        <v>0.001750615082532825</v>
       </c>
       <c r="J11">
-        <v>0.5448628875993364</v>
+        <v>0.419808646947132</v>
       </c>
       <c r="K11">
-        <v>0.4860683474146867</v>
+        <v>0.396878891251216</v>
       </c>
       <c r="L11">
-        <v>0.1712758936965386</v>
+        <v>0.1666182948695152</v>
       </c>
       <c r="M11">
-        <v>1.568587287742133</v>
+        <v>0.1391742748422118</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1714605304575016</v>
       </c>
       <c r="O11">
-        <v>0.5415357451999014</v>
+        <v>1.51986837945546</v>
       </c>
       <c r="P11">
-        <v>0.8885634841163306</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5410951502924704</v>
+      </c>
+      <c r="R11">
+        <v>0.8383381889650152</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.369604458394861</v>
+        <v>1.253766243487348</v>
       </c>
       <c r="C12">
-        <v>0.2758971864846558</v>
+        <v>0.3064342398888869</v>
       </c>
       <c r="D12">
-        <v>0.1534924944210303</v>
+        <v>0.1766005176101544</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.066123688730585</v>
+        <v>0.935282308786185</v>
       </c>
       <c r="G12">
-        <v>0.7226001909055526</v>
+        <v>0.6974387971597622</v>
       </c>
       <c r="H12">
-        <v>0.05801175142720183</v>
+        <v>0.05800214655630498</v>
       </c>
       <c r="I12">
-        <v>0.001431216811430325</v>
+        <v>0.001756651826593014</v>
       </c>
       <c r="J12">
-        <v>0.5100495944480912</v>
+        <v>0.3736577805040042</v>
       </c>
       <c r="K12">
-        <v>0.4504875124061627</v>
+        <v>0.3659401278825314</v>
       </c>
       <c r="L12">
-        <v>0.1071228222298508</v>
+        <v>0.154818386561054</v>
       </c>
       <c r="M12">
-        <v>1.571699768930358</v>
+        <v>0.1282115579945895</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1072584318940812</v>
       </c>
       <c r="O12">
-        <v>0.4572944132963812</v>
+        <v>1.517183842040794</v>
       </c>
       <c r="P12">
-        <v>0.8598963354559306</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.456109070294076</v>
+      </c>
+      <c r="R12">
+        <v>0.8229676969772131</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.346596012440699</v>
+        <v>1.239747641344508</v>
       </c>
       <c r="C13">
-        <v>0.2595721614553241</v>
+        <v>0.2861599862318656</v>
       </c>
       <c r="D13">
-        <v>0.1150378777260528</v>
+        <v>0.1338095839924165</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9489037072003867</v>
+        <v>0.834758354649928</v>
       </c>
       <c r="G13">
-        <v>0.6526190903739462</v>
+        <v>0.6297725048412417</v>
       </c>
       <c r="H13">
-        <v>0.1140409546815135</v>
+        <v>0.1140146175449814</v>
       </c>
       <c r="I13">
-        <v>0.001387530594892716</v>
+        <v>0.001682705864751277</v>
       </c>
       <c r="J13">
-        <v>0.4749071572114758</v>
+        <v>0.3562110480267151</v>
       </c>
       <c r="K13">
-        <v>0.4158685022296673</v>
+        <v>0.3410041350453135</v>
       </c>
       <c r="L13">
-        <v>0.06885863093122779</v>
+        <v>0.1466667134450006</v>
       </c>
       <c r="M13">
-        <v>1.528502206399651</v>
+        <v>0.117404295884505</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06905307443657982</v>
       </c>
       <c r="O13">
-        <v>0.3701984876648865</v>
+        <v>1.477981653441958</v>
       </c>
       <c r="P13">
-        <v>0.8490865831010734</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3691938603038949</v>
+      </c>
+      <c r="R13">
+        <v>0.8242194167243699</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.311425373239246</v>
+        <v>1.214506243527325</v>
       </c>
       <c r="C14">
-        <v>0.2450681960916512</v>
+        <v>0.2697873068923116</v>
       </c>
       <c r="D14">
-        <v>0.09015816390022735</v>
+        <v>0.1052653931196375</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.865837755937946</v>
+        <v>0.767553375283299</v>
       </c>
       <c r="G14">
-        <v>0.601857557242397</v>
+        <v>0.5728241008131079</v>
       </c>
       <c r="H14">
-        <v>0.1636568187928447</v>
+        <v>0.1636028949370569</v>
       </c>
       <c r="I14">
-        <v>0.001441963235779831</v>
+        <v>0.001707690343406121</v>
       </c>
       <c r="J14">
-        <v>0.450142939217244</v>
+        <v>0.3542081307141913</v>
       </c>
       <c r="K14">
-        <v>0.3919871111650437</v>
+        <v>0.3257312166910786</v>
       </c>
       <c r="L14">
-        <v>0.05751091980693879</v>
+        <v>0.1422522437967686</v>
       </c>
       <c r="M14">
-        <v>1.477328382555868</v>
+        <v>0.1098778381431558</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05783845308522351</v>
       </c>
       <c r="O14">
-        <v>0.3093973464287814</v>
+        <v>1.43379832478243</v>
       </c>
       <c r="P14">
-        <v>0.8500870120396744</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3088170070877041</v>
+      </c>
+      <c r="R14">
+        <v>0.832057553991536</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.293258409516881</v>
+        <v>1.200396246627633</v>
       </c>
       <c r="C15">
-        <v>0.2403526702057235</v>
+        <v>0.2649610254111678</v>
       </c>
       <c r="D15">
-        <v>0.08415255591074811</v>
+        <v>0.09809111618924504</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8436568350273745</v>
+        <v>0.7511271111374214</v>
       </c>
       <c r="G15">
-        <v>0.5877555240822687</v>
+        <v>0.554198836144991</v>
       </c>
       <c r="H15">
-        <v>0.1762858672568939</v>
+        <v>0.1762169776586404</v>
       </c>
       <c r="I15">
-        <v>0.001576231995325195</v>
+        <v>0.001844279316665087</v>
       </c>
       <c r="J15">
-        <v>0.4436190489031731</v>
+        <v>0.3578107097345793</v>
       </c>
       <c r="K15">
-        <v>0.3857533683195697</v>
+        <v>0.3224797861807254</v>
       </c>
       <c r="L15">
-        <v>0.05667060217554853</v>
+        <v>0.1415742927221384</v>
       </c>
       <c r="M15">
-        <v>1.454951343462369</v>
+        <v>0.107857299428133</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05708317773051652</v>
       </c>
       <c r="O15">
-        <v>0.2933565672566516</v>
+        <v>1.414923947246706</v>
       </c>
       <c r="P15">
-        <v>0.8531572576172115</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2929979729564067</v>
+      </c>
+      <c r="R15">
+        <v>0.8362677926642093</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.210910973523653</v>
+        <v>1.131836814795747</v>
       </c>
       <c r="C16">
-        <v>0.22549308072945</v>
+        <v>0.2524498729977012</v>
       </c>
       <c r="D16">
-        <v>0.08072791471924035</v>
+        <v>0.09197427750780207</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8294575406693312</v>
+        <v>0.7533064617129526</v>
       </c>
       <c r="G16">
-        <v>0.5769894213457007</v>
+        <v>0.5187635706117391</v>
       </c>
       <c r="H16">
-        <v>0.1641390207500564</v>
+        <v>0.163986710209258</v>
       </c>
       <c r="I16">
-        <v>0.001841363819561792</v>
+        <v>0.002000718880979413</v>
       </c>
       <c r="J16">
-        <v>0.4420992732776909</v>
+        <v>0.3969841896029465</v>
       </c>
       <c r="K16">
-        <v>0.3857649421257392</v>
+        <v>0.3297688769463356</v>
       </c>
       <c r="L16">
-        <v>0.05542499657933275</v>
+        <v>0.1465058901396556</v>
       </c>
       <c r="M16">
-        <v>1.363269645604902</v>
+        <v>0.1071587802328544</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05628491771295119</v>
       </c>
       <c r="O16">
-        <v>0.2776829482581249</v>
+        <v>1.338186794496011</v>
       </c>
       <c r="P16">
-        <v>0.8765753038190258</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2783680383656773</v>
+      </c>
+      <c r="R16">
+        <v>0.8553570728860009</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.166413298283288</v>
+        <v>1.091739865382834</v>
       </c>
       <c r="C17">
-        <v>0.2218391895616634</v>
+        <v>0.2509086764591473</v>
       </c>
       <c r="D17">
-        <v>0.09072773841452175</v>
+        <v>0.1017884072424096</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8619295071083144</v>
+        <v>0.7892145048809809</v>
       </c>
       <c r="G17">
-        <v>0.5953677614016613</v>
+        <v>0.5244644310642883</v>
       </c>
       <c r="H17">
-        <v>0.1266718517867673</v>
+        <v>0.1264701606995828</v>
       </c>
       <c r="I17">
-        <v>0.002061866778322319</v>
+        <v>0.002149396335420661</v>
       </c>
       <c r="J17">
-        <v>0.4539844046567794</v>
+        <v>0.4256457769230622</v>
       </c>
       <c r="K17">
-        <v>0.3982835437929744</v>
+        <v>0.3430129458209272</v>
       </c>
       <c r="L17">
-        <v>0.05786098877592405</v>
+        <v>0.1527775377082428</v>
       </c>
       <c r="M17">
-        <v>1.320169847228414</v>
+        <v>0.1102287703584288</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05892394605999751</v>
       </c>
       <c r="O17">
-        <v>0.2969222945547685</v>
+        <v>1.301049426979375</v>
       </c>
       <c r="P17">
-        <v>0.8938752147785962</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2981389014926208</v>
+      </c>
+      <c r="R17">
+        <v>0.8671902702145005</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.151332217237638</v>
+        <v>1.074762246864253</v>
       </c>
       <c r="C18">
-        <v>0.2264233305444066</v>
+        <v>0.2587213058377813</v>
       </c>
       <c r="D18">
-        <v>0.1156390836114838</v>
+        <v>0.128179889082034</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.942542883446869</v>
+        <v>0.8649498734096213</v>
       </c>
       <c r="G18">
-        <v>0.6436514175605339</v>
+        <v>0.5617924289515912</v>
       </c>
       <c r="H18">
-        <v>0.07379983773080312</v>
+        <v>0.07358984764013599</v>
       </c>
       <c r="I18">
-        <v>0.001894662529838165</v>
+        <v>0.001910241054869033</v>
       </c>
       <c r="J18">
-        <v>0.4800427765415947</v>
+        <v>0.4564462667158011</v>
       </c>
       <c r="K18">
-        <v>0.4248345837590293</v>
+        <v>0.3656031335831393</v>
       </c>
       <c r="L18">
-        <v>0.07723804936256329</v>
+        <v>0.1619832373883909</v>
       </c>
       <c r="M18">
-        <v>1.314017079071675</v>
+        <v>0.1177348068075581</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07832774206784876</v>
       </c>
       <c r="O18">
-        <v>0.3517758342550792</v>
+        <v>1.29649894267871</v>
       </c>
       <c r="P18">
-        <v>0.9112674850341489</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.353405879389932</v>
+      </c>
+      <c r="R18">
+        <v>0.8767109511161602</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.156129830062326</v>
+        <v>1.073597568671005</v>
       </c>
       <c r="C19">
-        <v>0.2395938938576734</v>
+        <v>0.276442981332508</v>
       </c>
       <c r="D19">
-        <v>0.1552308045278181</v>
+        <v>0.1705197348384928</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.056904418519068</v>
+        <v>0.96885284497165</v>
       </c>
       <c r="G19">
-        <v>0.7109354564997972</v>
+        <v>0.617937232039111</v>
       </c>
       <c r="H19">
-        <v>0.02810543332569182</v>
+        <v>0.02792769198582334</v>
       </c>
       <c r="I19">
-        <v>0.0019585483225244</v>
+        <v>0.002024273353106842</v>
       </c>
       <c r="J19">
-        <v>0.5146335194009026</v>
+        <v>0.4888635064326081</v>
       </c>
       <c r="K19">
-        <v>0.4593807126117397</v>
+        <v>0.3931811426067355</v>
       </c>
       <c r="L19">
-        <v>0.1290576445973599</v>
+        <v>0.1725276052782228</v>
       </c>
       <c r="M19">
-        <v>1.336859324779397</v>
+        <v>0.12789606427501</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1300329653312389</v>
       </c>
       <c r="O19">
-        <v>0.4370316350092125</v>
+        <v>1.318423832865903</v>
       </c>
       <c r="P19">
-        <v>0.9312108058431061</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4390373635929734</v>
+      </c>
+      <c r="R19">
+        <v>0.886945631137829</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.225409690016733</v>
+        <v>1.125305929797037</v>
       </c>
       <c r="C20">
-        <v>0.2727942310158653</v>
+        <v>0.3176801266626512</v>
       </c>
       <c r="D20">
-        <v>0.2335434336046092</v>
+        <v>0.2555261408749914</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.269122109281156</v>
+        <v>1.15352037923742</v>
       </c>
       <c r="G20">
-        <v>0.8360422019635223</v>
+        <v>0.7319337945039166</v>
       </c>
       <c r="H20">
-        <v>0.0007313209615853467</v>
+        <v>0.0006633629236714178</v>
       </c>
       <c r="I20">
-        <v>0.001738334643308193</v>
+        <v>0.001970821052114324</v>
       </c>
       <c r="J20">
-        <v>0.5753765849727017</v>
+        <v>0.525399820175636</v>
       </c>
       <c r="K20">
-        <v>0.5197563926488868</v>
+        <v>0.4371867386641881</v>
       </c>
       <c r="L20">
-        <v>0.2670914245783962</v>
+        <v>0.1868331545586628</v>
       </c>
       <c r="M20">
-        <v>1.442740675530359</v>
+        <v>0.1473232904598731</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2675825237309937</v>
       </c>
       <c r="O20">
-        <v>0.6049891570726942</v>
+        <v>1.416650547261924</v>
       </c>
       <c r="P20">
-        <v>0.9568467642172891</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6070960508580185</v>
+      </c>
+      <c r="R20">
+        <v>0.8952128191663693</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.38330561834735</v>
+        <v>1.252009073705011</v>
       </c>
       <c r="C21">
-        <v>0.3101155453695128</v>
+        <v>0.3513179907695871</v>
       </c>
       <c r="D21">
-        <v>0.267170232136408</v>
+        <v>0.3003601158185347</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.369605980003314</v>
+        <v>1.202871513867152</v>
       </c>
       <c r="G21">
-        <v>0.89890222873818</v>
+        <v>0.8558406373137046</v>
       </c>
       <c r="H21">
-        <v>3.559460694368966E-05</v>
+        <v>3.733058403065925E-05</v>
       </c>
       <c r="I21">
-        <v>0.001695249477102756</v>
+        <v>0.002091285503896145</v>
       </c>
       <c r="J21">
-        <v>0.5996996842682734</v>
+        <v>0.4348595038823646</v>
       </c>
       <c r="K21">
-        <v>0.5410225021450046</v>
+        <v>0.4346927008803334</v>
       </c>
       <c r="L21">
-        <v>0.3093092802932063</v>
+        <v>0.1793019421642796</v>
       </c>
       <c r="M21">
-        <v>1.631048756856813</v>
+        <v>0.1552676447162327</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3093102976546902</v>
       </c>
       <c r="O21">
-        <v>0.6925818158601302</v>
+        <v>1.572663122072271</v>
       </c>
       <c r="P21">
-        <v>0.9225187268197566</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6914380705061589</v>
+      </c>
+      <c r="R21">
+        <v>0.8510378830337455</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.488566797226497</v>
+        <v>1.335904346922064</v>
       </c>
       <c r="C22">
-        <v>0.3322139061118037</v>
+        <v>0.3697243929065053</v>
       </c>
       <c r="D22">
-        <v>0.284966896001265</v>
+        <v>0.3259736178074348</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.429692148534315</v>
+        <v>1.227465050238649</v>
       </c>
       <c r="G22">
-        <v>0.9381106044317278</v>
+        <v>0.9445250177261357</v>
       </c>
       <c r="H22">
-        <v>2.839180292291132E-05</v>
+        <v>1.757284427572614E-05</v>
       </c>
       <c r="I22">
-        <v>0.001671069353184507</v>
+        <v>0.002013902542159052</v>
       </c>
       <c r="J22">
-        <v>0.6147217102154201</v>
+        <v>0.3783033479969333</v>
       </c>
       <c r="K22">
-        <v>0.5545172426227012</v>
+        <v>0.4318555310874785</v>
       </c>
       <c r="L22">
-        <v>0.3291618747656599</v>
+        <v>0.1741156716720731</v>
       </c>
       <c r="M22">
-        <v>1.752737417977329</v>
+        <v>0.1602613600055705</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3289003028375532</v>
       </c>
       <c r="O22">
-        <v>0.7423993136527898</v>
+        <v>1.671037308883257</v>
       </c>
       <c r="P22">
-        <v>0.899835519665082</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.738799753246596</v>
+      </c>
+      <c r="R22">
+        <v>0.822345149065141</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.435401713724531</v>
+        <v>1.295366428611487</v>
       </c>
       <c r="C23">
-        <v>0.3189469930962616</v>
+        <v>0.3597624128336179</v>
       </c>
       <c r="D23">
-        <v>0.2749308625810158</v>
+        <v>0.3108170758769262</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.400473194231552</v>
+        <v>1.220873595732357</v>
       </c>
       <c r="G23">
-        <v>0.9198795588193605</v>
+        <v>0.8903954404761691</v>
       </c>
       <c r="H23">
-        <v>3.944875777150969E-07</v>
+        <v>1.392824492185696E-06</v>
       </c>
       <c r="I23">
-        <v>0.0013540530282663</v>
+        <v>0.001673771066996288</v>
       </c>
       <c r="J23">
-        <v>0.6080642736884982</v>
+        <v>0.4189080893734456</v>
       </c>
       <c r="K23">
-        <v>0.5492722956206109</v>
+        <v>0.4366208772281936</v>
       </c>
       <c r="L23">
-        <v>0.318614856722732</v>
+        <v>0.177965178852812</v>
       </c>
       <c r="M23">
-        <v>1.688421140963044</v>
+        <v>0.1589243527401472</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3184460448018882</v>
       </c>
       <c r="O23">
-        <v>0.7157442244843182</v>
+        <v>1.622228855061707</v>
       </c>
       <c r="P23">
-        <v>0.9131342489938064</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7138456936492474</v>
+      </c>
+      <c r="R23">
+        <v>0.8390805573069766</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.229221863604181</v>
+        <v>1.128392094637007</v>
       </c>
       <c r="C24">
-        <v>0.2717271617007668</v>
+        <v>0.3169649891926269</v>
       </c>
       <c r="D24">
-        <v>0.2379809373580599</v>
+        <v>0.2602291019490508</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.286823057776999</v>
+        <v>1.16989500944203</v>
       </c>
       <c r="G24">
-        <v>0.8478827994040046</v>
+        <v>0.7417593307363575</v>
       </c>
       <c r="H24">
-        <v>0.000564101168939235</v>
+        <v>0.000499414621975891</v>
       </c>
       <c r="I24">
-        <v>0.001238087680382804</v>
+        <v>0.001374199076848548</v>
       </c>
       <c r="J24">
-        <v>0.5814471661997374</v>
+        <v>0.5316599528232473</v>
       </c>
       <c r="K24">
-        <v>0.5268619573212376</v>
+        <v>0.4431565883572404</v>
       </c>
       <c r="L24">
-        <v>0.2787179578745054</v>
+        <v>0.1891201950587806</v>
       </c>
       <c r="M24">
-        <v>1.444608416909318</v>
+        <v>0.1495132672633233</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2791882010817517</v>
       </c>
       <c r="O24">
-        <v>0.6152284196254243</v>
+        <v>1.418574203035462</v>
       </c>
       <c r="P24">
-        <v>0.9627309429881699</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6173940268781024</v>
+      </c>
+      <c r="R24">
+        <v>0.8991952631647084</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.00692992274395</v>
+        <v>0.9318488775990659</v>
       </c>
       <c r="C25">
-        <v>0.2219711764186201</v>
+        <v>0.2567362061197684</v>
       </c>
       <c r="D25">
-        <v>0.1984562422050118</v>
+        <v>0.2158819652394186</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.167696797930162</v>
+        <v>1.074082891342314</v>
       </c>
       <c r="G25">
-        <v>0.7732471166067114</v>
+        <v>0.6794494135640861</v>
       </c>
       <c r="H25">
-        <v>0.00247765283644763</v>
+        <v>0.002207791599552866</v>
       </c>
       <c r="I25">
-        <v>0.00232046111053652</v>
+        <v>0.001970468924558766</v>
       </c>
       <c r="J25">
-        <v>0.5544784753336813</v>
+        <v>0.5204257382114861</v>
       </c>
       <c r="K25">
-        <v>0.5040871239318321</v>
+        <v>0.432974222590051</v>
       </c>
       <c r="L25">
-        <v>0.2358736662300558</v>
+        <v>0.1951768587525748</v>
       </c>
       <c r="M25">
-        <v>1.183062414087772</v>
+        <v>0.1342802697812751</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2373646126862141</v>
       </c>
       <c r="O25">
-        <v>0.5073909254190241</v>
+        <v>1.166111443952644</v>
       </c>
       <c r="P25">
-        <v>1.0187415162872</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.5096500239814361</v>
+      </c>
+      <c r="R25">
+        <v>0.9568579490154079</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
